--- a/miabrooks/MiaBrooks_Complete_Infloww.xlsx
+++ b/miabrooks/MiaBrooks_Complete_Infloww.xlsx
@@ -2323,7 +2323,7 @@
       </c>
       <c r="B2" s="5" t="inlineStr">
         <is>
-          <t>can't stop thinking about earlier. you around? 😏</t>
+          <t>still thinking about our conversation... come back when you can 😏</t>
         </is>
       </c>
       <c r="C2" s="5" t="inlineStr">
@@ -2350,7 +2350,7 @@
       </c>
       <c r="B3" s="6" t="inlineStr">
         <is>
-          <t>hey hope you're doing well handsome, text me when you're back 💋</t>
+          <t>hey handsome, just checking in on you 💋</t>
         </is>
       </c>
       <c r="C3" s="6" t="inlineStr">
@@ -2367,7 +2367,7 @@
       </c>
       <c r="B4" s="5" t="inlineStr">
         <is>
-          <t>I guess you're busy. I might delete this later, it was only meant for you 💼</t>
+          <t>I'm starting to think you forgot about me...</t>
         </is>
       </c>
       <c r="C4" s="5" t="inlineStr">
@@ -2384,7 +2384,7 @@
       </c>
       <c r="B5" s="6" t="inlineStr">
         <is>
-          <t>you really need to see what I just did for you... trust me 💋</t>
+          <t>literally just took something crazy and you're not even here to see it 💋</t>
         </is>
       </c>
       <c r="C5" s="6" t="inlineStr">
@@ -2401,7 +2401,7 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>hey? 🥺</t>
+          <t>hey you 🥺</t>
         </is>
       </c>
       <c r="C6" s="5" t="inlineStr">
@@ -4196,7 +4196,7 @@
       </c>
       <c r="B3" s="13" t="inlineStr">
         <is>
-          <t>more...</t>
+          <t>again...</t>
         </is>
       </c>
       <c r="C3" s="13" t="inlineStr">
@@ -4250,7 +4250,7 @@
       </c>
       <c r="B6" s="13" t="inlineStr">
         <is>
-          <t>you have no idea what you're doing to me right now</t>
+          <t>I literally can't handle this right now</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
@@ -4268,7 +4268,7 @@
       </c>
       <c r="B7" s="13" t="inlineStr">
         <is>
-          <t>don't stop</t>
+          <t>keep going</t>
         </is>
       </c>
       <c r="C7" s="13" t="inlineStr">

--- a/miabrooks/MiaBrooks_Complete_Infloww.xlsx
+++ b/miabrooks/MiaBrooks_Complete_Infloww.xlsx
@@ -38,9 +38,10 @@
     <sheet name="customno2" sheetId="29" state="visible" r:id="rId29"/>
     <sheet name="done1" sheetId="30" state="visible" r:id="rId30"/>
     <sheet name="done2" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="cumcontrol" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="dickpic" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="boosters" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="cumcontrol1" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="cumcontrol2" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="dickpic" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="boosters" sheetId="35" state="visible" r:id="rId35"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -659,7 +660,7 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>hold on</t>
+          <t>one sec</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -702,7 +703,7 @@
       </c>
       <c r="B8" s="5" t="inlineStr">
         <is>
-          <t>FUCK 😩</t>
+          <t>oh god 😩</t>
         </is>
       </c>
       <c r="C8" s="5" t="inlineStr">
@@ -753,7 +754,7 @@
       </c>
       <c r="B11" s="6" t="inlineStr">
         <is>
-          <t>I can't hold back anymore</t>
+          <t>screw it I'm done waiting</t>
         </is>
       </c>
       <c r="C11" s="6" t="inlineStr"/>
@@ -3868,7 +3869,7 @@
       </c>
       <c r="B2" s="13" t="inlineStr">
         <is>
-          <t>don't you dare finish before you see this, trust me you want to wait 💼</t>
+          <t>just hold on a little more, I want the last thing you see to be this</t>
         </is>
       </c>
       <c r="C2" s="13" t="inlineStr">
@@ -3886,12 +3887,12 @@
       </c>
       <c r="B3" s="13" t="inlineStr">
         <is>
-          <t>hold it... wait until you see what I'm about to send, it's worth the wait 😏</t>
+          <t>wait for me... I have one more thing and I want you to see it before we finish</t>
         </is>
       </c>
       <c r="C3" s="13" t="inlineStr">
         <is>
-          <t>DELAY.</t>
+          <t>DELAY. Send PPV.</t>
         </is>
       </c>
       <c r="D3" s="13" t="inlineStr"/>
@@ -3904,12 +3905,12 @@
       </c>
       <c r="B4" s="13" t="inlineStr">
         <is>
-          <t>wait for me, I want us to get there together... open this first 💋</t>
+          <t>stay with me, I'm almost there too... watch this</t>
         </is>
       </c>
       <c r="C4" s="13" t="inlineStr">
         <is>
-          <t>SYNC variant.</t>
+          <t>SYNC variant. Send PPV.</t>
         </is>
       </c>
       <c r="D4" s="13" t="inlineStr"/>
@@ -3922,12 +3923,12 @@
       </c>
       <c r="B5" s="13" t="inlineStr">
         <is>
-          <t>I'm so close too, finish with me... but you need to see this first 🥺</t>
+          <t>I want us to finish together babe... open this and let go with me 💋</t>
         </is>
       </c>
       <c r="C5" s="13" t="inlineStr">
         <is>
-          <t>SYNC. Final PPV.</t>
+          <t>SYNC. Send PPV.</t>
         </is>
       </c>
       <c r="D5" s="13" t="inlineStr"/>
@@ -3940,7 +3941,7 @@
       </c>
       <c r="B6" s="13" t="inlineStr">
         <is>
-          <t>hold on babe, not yet... I need you to last a little longer for me please 💋</t>
+          <t>please don't finish yet... I'm not ready for this to be over 🥺</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
@@ -3958,12 +3959,12 @@
       </c>
       <c r="B7" s="13" t="inlineStr">
         <is>
-          <t>don't finish yet... I'm not done with you 😏</t>
+          <t>not yet babe... I want this to last a little longer with you 😏</t>
         </is>
       </c>
       <c r="C7" s="13" t="inlineStr">
         <is>
-          <t>EDGE. More PPVs left.</t>
+          <t>CONTROL.</t>
         </is>
       </c>
       <c r="D7" s="13" t="inlineStr"/>
@@ -4018,17 +4019,17 @@
     <row r="2">
       <c r="A2" s="13" t="inlineStr">
         <is>
-          <t>dpppv2</t>
+          <t>delay2</t>
         </is>
       </c>
       <c r="B2" s="13" t="inlineStr">
         <is>
-          <t>okay you just made me do something I probably shouldn't be doing at home alone... give me a moment 💋</t>
+          <t>just a little longer for me babe? the next one is special 💋</t>
         </is>
       </c>
       <c r="C2" s="13" t="inlineStr">
         <is>
-          <t>LEVERAGE variant.</t>
+          <t>DELAY variant.</t>
         </is>
       </c>
       <c r="D2" s="13" t="inlineStr"/>
@@ -4036,17 +4037,17 @@
     <row r="3">
       <c r="A3" s="13" t="inlineStr">
         <is>
-          <t>dpppv1</t>
+          <t>delay1</t>
         </is>
       </c>
       <c r="B3" s="13" t="inlineStr">
         <is>
-          <t>you can't just send me that and expect me to not do something about it, hold on 😏</t>
+          <t>please wait... what I'm about to send, I want you to really take it in</t>
         </is>
       </c>
       <c r="C3" s="13" t="inlineStr">
         <is>
-          <t>LEVERAGE. WAIT 1-2 min then send PPV.</t>
+          <t>DELAY. Send PPV.</t>
         </is>
       </c>
       <c r="D3" s="13" t="inlineStr"/>
@@ -4054,17 +4055,17 @@
     <row r="4">
       <c r="A4" s="13" t="inlineStr">
         <is>
-          <t>dprapport2</t>
+          <t>sync2</t>
         </is>
       </c>
       <c r="B4" s="13" t="inlineStr">
         <is>
-          <t>I was not expecting that but... wow 💋</t>
+          <t>I need you to see this before we both let go babe 🥺</t>
         </is>
       </c>
       <c r="C4" s="13" t="inlineStr">
         <is>
-          <t>DURING RAPPORT variant.</t>
+          <t>SYNC variant.</t>
         </is>
       </c>
       <c r="D4" s="13" t="inlineStr"/>
@@ -4072,17 +4073,17 @@
     <row r="5">
       <c r="A5" s="13" t="inlineStr">
         <is>
-          <t>dprapport1</t>
+          <t>sync1</t>
         </is>
       </c>
       <c r="B5" s="13" t="inlineStr">
         <is>
-          <t>well well, you don't waste any time do you? that's actually really attractive 🥺</t>
+          <t>okay... together, right now... open this</t>
         </is>
       </c>
       <c r="C5" s="13" t="inlineStr">
         <is>
-          <t>DURING RAPPORT. React positively.</t>
+          <t>SYNC. Send PPV.</t>
         </is>
       </c>
       <c r="D5" s="13" t="inlineStr"/>
@@ -4090,17 +4091,17 @@
     <row r="6">
       <c r="A6" s="13" t="inlineStr">
         <is>
-          <t>dpsext2</t>
+          <t>edge2</t>
         </is>
       </c>
       <c r="B6" s="13" t="inlineStr">
         <is>
-          <t>oh my god... I need to show you something right now 💋</t>
+          <t>don't rush... this is too good to end yet</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
         <is>
-          <t>DURING SEXTING variant.</t>
+          <t>EDGE variant.</t>
         </is>
       </c>
       <c r="D6" s="13" t="inlineStr"/>
@@ -4108,17 +4109,17 @@
     <row r="7">
       <c r="A7" s="13" t="inlineStr">
         <is>
-          <t>dpsext1</t>
+          <t>edge1</t>
         </is>
       </c>
       <c r="B7" s="13" t="inlineStr">
         <is>
-          <t>fuck okay that's... wow. you have no idea what that just did to me 😏</t>
+          <t>slow down babe... I want to feel every second of this with you 😏</t>
         </is>
       </c>
       <c r="C7" s="13" t="inlineStr">
         <is>
-          <t>DURING SEXTING. React positively, leverage into PPV.</t>
+          <t>CONTROL.</t>
         </is>
       </c>
       <c r="D7" s="13" t="inlineStr"/>
@@ -4129,6 +4130,161 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="80" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="C1" s="10" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="D1" s="10" t="inlineStr">
+        <is>
+          <t>*Guidelines</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="13" t="inlineStr">
+        <is>
+          <t>dpppv2</t>
+        </is>
+      </c>
+      <c r="B2" s="13" t="inlineStr">
+        <is>
+          <t>okay you just made me do something I probably shouldn't be doing at home alone... give me a moment 💋</t>
+        </is>
+      </c>
+      <c r="C2" s="13" t="inlineStr">
+        <is>
+          <t>LEVERAGE variant.</t>
+        </is>
+      </c>
+      <c r="D2" s="13" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="13" t="inlineStr">
+        <is>
+          <t>dpppv1</t>
+        </is>
+      </c>
+      <c r="B3" s="13" t="inlineStr">
+        <is>
+          <t>you can't just send me that and expect me to not do something about it, hold on 😏</t>
+        </is>
+      </c>
+      <c r="C3" s="13" t="inlineStr">
+        <is>
+          <t>LEVERAGE. WAIT 1-2 min then send PPV.</t>
+        </is>
+      </c>
+      <c r="D3" s="13" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="13" t="inlineStr">
+        <is>
+          <t>dprapport2</t>
+        </is>
+      </c>
+      <c r="B4" s="13" t="inlineStr">
+        <is>
+          <t>I was not expecting that but... wow 💋</t>
+        </is>
+      </c>
+      <c r="C4" s="13" t="inlineStr">
+        <is>
+          <t>DURING RAPPORT variant.</t>
+        </is>
+      </c>
+      <c r="D4" s="13" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="13" t="inlineStr">
+        <is>
+          <t>dprapport1</t>
+        </is>
+      </c>
+      <c r="B5" s="13" t="inlineStr">
+        <is>
+          <t>well well, you don't waste any time do you? that's actually really attractive 🥺</t>
+        </is>
+      </c>
+      <c r="C5" s="13" t="inlineStr">
+        <is>
+          <t>DURING RAPPORT. React positively.</t>
+        </is>
+      </c>
+      <c r="D5" s="13" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="13" t="inlineStr">
+        <is>
+          <t>dpsext2</t>
+        </is>
+      </c>
+      <c r="B6" s="13" t="inlineStr">
+        <is>
+          <t>oh my god... I need to show you something right now 💋</t>
+        </is>
+      </c>
+      <c r="C6" s="13" t="inlineStr">
+        <is>
+          <t>DURING SEXTING variant.</t>
+        </is>
+      </c>
+      <c r="D6" s="13" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="13" t="inlineStr">
+        <is>
+          <t>dpsext1</t>
+        </is>
+      </c>
+      <c r="B7" s="13" t="inlineStr">
+        <is>
+          <t>fuck okay that's... wow. you have no idea what that just did to me 😏</t>
+        </is>
+      </c>
+      <c r="C7" s="13" t="inlineStr">
+        <is>
+          <t>DURING SEXTING. React positively, leverage into PPV.</t>
+        </is>
+      </c>
+      <c r="D7" s="13" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/miabrooks/MiaBrooks_Complete_Infloww.xlsx
+++ b/miabrooks/MiaBrooks_Complete_Infloww.xlsx
@@ -643,7 +643,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>finish with me 🥺</t>
+          <t>let go with me right now babe... watch every second 🥵</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>I want to cum with you... I'm right there 💋</t>
+          <t>I'm cumming... holy fuck I'm cumming for you right now</t>
         </is>
       </c>
       <c r="C6" s="5" t="inlineStr"/>
@@ -690,7 +690,7 @@
       </c>
       <c r="B7" s="6" t="inlineStr">
         <is>
-          <t>don't finish yet please</t>
+          <t>I'm literally right on the edge babe... stay right here, I'm about to explode 😏</t>
         </is>
       </c>
       <c r="C7" s="6" t="inlineStr"/>
@@ -703,7 +703,7 @@
       </c>
       <c r="B8" s="5" t="inlineStr">
         <is>
-          <t>oh god 😩</t>
+          <t>oh god oh god 🥵</t>
         </is>
       </c>
       <c r="C8" s="5" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>this is the furthest I've ever gone for someone on here... watch 💋</t>
+          <t>this might be the most intense thing I've ever done babe... you need to see it 🥵</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="B11" s="6" t="inlineStr">
         <is>
-          <t>screw it I'm done waiting</t>
+          <t>I can feel it building so fast... you have to watch what happens next</t>
         </is>
       </c>
       <c r="C11" s="6" t="inlineStr"/>
@@ -767,7 +767,7 @@
       </c>
       <c r="B12" s="5" t="inlineStr">
         <is>
-          <t>the thought of you watching me while I play with myself is making everything so much more intense 💋</t>
+          <t>I keep going deeper and my toes are literally curling right now 😏</t>
         </is>
       </c>
       <c r="C12" s="5" t="inlineStr">
@@ -784,7 +784,7 @@
       </c>
       <c r="B13" s="6" t="inlineStr">
         <is>
-          <t>I need to finish so badly right now you have no idea</t>
+          <t>I'm fingering myself so hard right now and I can hear how wet I am babe... this is insane</t>
         </is>
       </c>
       <c r="C13" s="6" t="inlineStr"/>
@@ -797,7 +797,7 @@
       </c>
       <c r="B14" s="5" t="inlineStr">
         <is>
-          <t>fuck 😩</t>
+          <t>FUCKK 🥵</t>
         </is>
       </c>
       <c r="C14" s="5" t="inlineStr">
@@ -814,7 +814,7 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>look what you've done to me 😏</t>
+          <t>tell me you can handle this... because what I just recorded is intense 🥵</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="B17" s="6" t="inlineStr">
         <is>
-          <t>tell me what you want me to do to myself right now... I want to hear it from you</t>
+          <t>be honest babe... what would you do to me right now? because I'll act it out for you</t>
         </is>
       </c>
       <c r="C17" s="6" t="inlineStr">
@@ -865,7 +865,7 @@
       </c>
       <c r="B18" s="5" t="inlineStr">
         <is>
-          <t>I'm so turned on and it's entirely your fault</t>
+          <t>I keep imagining you here between my legs and it's making everything so much more intense 🥵</t>
         </is>
       </c>
       <c r="C18" s="5" t="inlineStr"/>
@@ -878,7 +878,7 @@
       </c>
       <c r="B19" s="6" t="inlineStr">
         <is>
-          <t>okay you're doing something to me right now and I genuinely can't explain it 💋</t>
+          <t>I'm literally dripping wet right now and my hand won't stop moving... you broke something in me</t>
         </is>
       </c>
       <c r="C19" s="6" t="inlineStr">
@@ -895,7 +895,7 @@
       </c>
       <c r="B20" s="5" t="inlineStr">
         <is>
-          <t>did you see it? 🥺</t>
+          <t>omg... okay wow that escalated 😏</t>
         </is>
       </c>
       <c r="C20" s="5" t="inlineStr">
@@ -912,7 +912,7 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>I don't usually share this side of me with anyone... but something about you is making me reckless</t>
+          <t>I can't believe I'm doing this but I need you to see 🥵</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
@@ -946,7 +946,7 @@
       </c>
       <c r="B23" s="6" t="inlineStr">
         <is>
-          <t>I'm feeling something I definitely shouldn't be feeling right now... wanna see what the girl behind the desk looks like after hours? 😏</t>
+          <t>okay I just started touching myself and it's 100% your fault babe... no regrets though 🥵</t>
         </is>
       </c>
       <c r="C23" s="6" t="inlineStr"/>
@@ -959,7 +959,7 @@
       </c>
       <c r="B24" s="5" t="inlineStr">
         <is>
-          <t>I had a feeling you'd appreciate that 💋</t>
+          <t>something about this conversation is making every inch of my skin feel electric... especially between my legs</t>
         </is>
       </c>
       <c r="C24" s="5" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="B25" s="6" t="inlineStr">
         <is>
-          <t>well?</t>
+          <t>well? because I can feel my body reacting to the way you're looking at me right now 😏</t>
         </is>
       </c>
       <c r="C25" s="6" t="inlineStr">

--- a/miabrooks/MiaBrooks_Complete_Infloww.xlsx
+++ b/miabrooks/MiaBrooks_Complete_Infloww.xlsx
@@ -703,7 +703,7 @@
       </c>
       <c r="B8" s="5" t="inlineStr">
         <is>
-          <t>oh god oh god 🥵</t>
+          <t>oh god oh god my whole body is about to let go 🥵</t>
         </is>
       </c>
       <c r="C8" s="5" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="B11" s="6" t="inlineStr">
         <is>
-          <t>I can feel it building so fast... you have to watch what happens next</t>
+          <t>I can feel myself about to cum so hard babe... you have to watch what happens next</t>
         </is>
       </c>
       <c r="C11" s="6" t="inlineStr"/>
@@ -797,7 +797,7 @@
       </c>
       <c r="B14" s="5" t="inlineStr">
         <is>
-          <t>FUCKK 🥵</t>
+          <t>FUCKK that feels so good 🥵</t>
         </is>
       </c>
       <c r="C14" s="5" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="B25" s="6" t="inlineStr">
         <is>
-          <t>well? because I can feel my body reacting to the way you're looking at me right now 😏</t>
+          <t>well? because I can feel myself getting wet just from the way you're looking at me right now 😏</t>
         </is>
       </c>
       <c r="C25" s="6" t="inlineStr">

--- a/miabrooks/MiaBrooks_Complete_Infloww.xlsx
+++ b/miabrooks/MiaBrooks_Complete_Infloww.xlsx
@@ -643,7 +643,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>let go with me right now babe... watch every second 🥵</t>
+          <t>watch me cum... this is for you and only you 🥵</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>I'm cumming... holy fuck I'm cumming for you right now</t>
+          <t>FUCK I'm cumming babe... I can feel my pussy pulsing and it's dripping everywhere oh my god</t>
         </is>
       </c>
       <c r="C6" s="5" t="inlineStr"/>
@@ -690,7 +690,7 @@
       </c>
       <c r="B7" s="6" t="inlineStr">
         <is>
-          <t>I'm literally right on the edge babe... stay right here, I'm about to explode 😏</t>
+          <t>my pussy is clenching so hard I can feel every throb... cum with me babe 😏</t>
         </is>
       </c>
       <c r="C7" s="6" t="inlineStr"/>
@@ -703,7 +703,7 @@
       </c>
       <c r="B8" s="5" t="inlineStr">
         <is>
-          <t>oh god oh god my whole body is about to let go 🥵</t>
+          <t>oh god oh god my pussy is throbbing so hard and I'm about to let go 🥵</t>
         </is>
       </c>
       <c r="C8" s="5" t="inlineStr">

--- a/miabrooks/MiaBrooks_Complete_Infloww.xlsx
+++ b/miabrooks/MiaBrooks_Complete_Infloww.xlsx
@@ -38,10 +38,9 @@
     <sheet name="customno2" sheetId="29" state="visible" r:id="rId29"/>
     <sheet name="done1" sheetId="30" state="visible" r:id="rId30"/>
     <sheet name="done2" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="cumcontrol1" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="cumcontrol2" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="dickpic" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="boosters" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="cumcontrol" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="dickpic" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="boosters" sheetId="34" state="visible" r:id="rId34"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1206,7 +1205,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>it's fine, I'm not going anywhere... I'm enjoying this conversation way too much 💋</t>
+          <t>I'll keep it then, but just know I made it thinking about you</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -1224,7 +1223,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>I literally just did this because of what YOU said to me, this wasn't random content babe</t>
+          <t>I literally spent time making this because of what YOU said to me, this wasn't random content, this was for you</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -1242,7 +1241,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>free? I don't just hand out my best work... you have to earn the VIP treatment 😏</t>
+          <t>free? I don't just hand this out, you have to earn the best stuff from me</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -1260,12 +1259,12 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>I already sent you one for free remember? this one is on another level entirely 💋</t>
+          <t>baby I already gave you one for free remember? this one is on another level and you know it</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>REMINDER. Still wants free → Step 2.</t>
+          <t>REMINDER. Still → Step 2.</t>
         </is>
       </c>
       <c r="D5" s="11" t="inlineStr"/>
@@ -1325,7 +1324,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>no pressure love, I'm genuinely enjoying talking to you 💋</t>
+          <t>okay I'll hold onto it, but it's got your name on it</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -1343,7 +1342,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>I did this specifically because of our conversation, that took effort and I made it for YOU 🥺</t>
+          <t>I recorded this because of our conversation, specifically because of YOU, it took effort and I did it for you</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -1361,7 +1360,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>free? the best things in life aren't free handsome, especially not this 😏</t>
+          <t>the best things aren't free baby, especially not what I just did</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -1379,7 +1378,7 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>you already got a free preview, this one is a completely different experience</t>
+          <t>you already got a free preview and this is ten times crazier, you know I don't do free twice</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
@@ -1444,12 +1443,12 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>honestly it's fine, I enjoy your company with or without that... you do something to me 😏</t>
+          <t>it's fine, you're still here and that's what matters to me right now</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
         <is>
-          <t>PROTECT. GFE.</t>
+          <t>PROTECT.</t>
         </is>
       </c>
       <c r="D2" s="11" t="inlineStr"/>
@@ -1462,7 +1461,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>just send whatever you can, even a small amount, I need you to see what you made me do</t>
+          <t>send whatever you can, even something small, I just need you to see what you made me do</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -1480,12 +1479,12 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>not even [small amount]? I really want you to see this one 🥺</t>
+          <t>not even [small amount]? I really want you to be the one who sees this</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>TEST. $3-5. Still no → Step 3.</t>
+          <t>TEST $3-5. Still no → Step 3.</t>
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr"/>
@@ -1498,12 +1497,12 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>hey I completely understand, no pressure at all okay? 💋</t>
+          <t>I hear you baby, that's okay</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>EMPATHY. Still engaged → Step 2.</t>
+          <t>EMPATHY. Still → Step 2.</t>
         </is>
       </c>
       <c r="D5" s="11" t="inlineStr"/>
@@ -1563,7 +1562,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>it's totally fine, having you here is what matters to me 💼</t>
+          <t>you being here talking to me is enough for now</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -1581,7 +1580,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>send whatever feels right, even $1... I just can't keep this from you 💋</t>
+          <t>just send whatever feels right, I can't keep this from you</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -1599,7 +1598,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>what about just [small amount]? I really don't want you to miss this 🥺</t>
+          <t>what about just [small amount]? I'd hate for you to miss this one</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -1617,7 +1616,7 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>that's completely fine babe, don't worry about it at all</t>
+          <t>okay don't stress about it</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
@@ -1682,7 +1681,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>just send whatever you want, even $1, I can't keep this to myself... you need to see it</t>
+          <t>send me whatever you want, literally anything, I just can't keep this to myself, you need to see it</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -1700,7 +1699,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>this isn't about money... I just need you to see what you're doing to me right now, I don't react like this to people 🥺</t>
+          <t>okay forget about money, this isn't about that, I need you to see what you're doing to me rn because I've never reacted like this</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -1718,7 +1717,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>that's perfectly fine, I'm not here to sell you anything, I just enjoy talking to you 💋</t>
+          <t>that's fine, I'm not trying to sell you anything, I'm just enjoying this</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -1783,7 +1782,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>send me anything, even the smallest amount, I need you to see what you did to me 🥺</t>
+          <t>send anything, even the smallest amount, you need to see what you did to me</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -1801,7 +1800,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>forget about the money for a second... I want to share this with you because what you're making me feel is real 💋</t>
+          <t>forget the money part for a sec, I want to share this moment with you because what you're making me feel is real</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -1819,7 +1818,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>no worries at all handsome, I don't care about that I'm just enjoying this with you 😏</t>
+          <t>no worries, I don't care about that rn, this convo is what I care about</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -1884,7 +1883,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>figure it out soon babe, I'm in this mood and I don't know how long it's going to last 😏</t>
+          <t>figure it out soon because this mood I'm in right now isn't gonna last and I want you to have it</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -1902,12 +1901,12 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>try a different card? I really don't want you to miss this 💋</t>
+          <t>maybe try a different card? I really don't want you to miss this</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>ALTERNATIVE. Still fails → Step 3.</t>
+          <t>ALTERNATIVE. Still → Step 3.</t>
         </is>
       </c>
       <c r="D3" s="11" t="inlineStr"/>
@@ -1920,12 +1919,12 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>ugh that's frustrating, it happens sometimes though try again it usually works the second time 🥺</t>
+          <t>ugh that's annoying, try again baby it usually works the second time</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>RETRY. Still fails → Step 2.</t>
+          <t>RETRY. Still → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr"/>
@@ -1985,7 +1984,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>I want you to see this before I change my mind 💋</t>
+          <t>baby fix it quick, I don't keep stuff like this around forever</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -2003,12 +2002,12 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>do you have another card? I really want you to see this 🥺</t>
+          <t>do you have another card? because you really don't want to miss what I made for you</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>ALTERNATIVE. Still fails → Step 3.</t>
+          <t>ALTERNATIVE. Still → Step 3.</t>
         </is>
       </c>
       <c r="D3" s="11" t="inlineStr"/>
@@ -2021,12 +2020,12 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>that's annoying, it happens a lot though just try one more time</t>
+          <t>that happens sometimes, try one more time for me</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>RETRY. Still fails → Step 2.</t>
+          <t>RETRY. Still → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr"/>
@@ -2086,7 +2085,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>okay I'll behave... for now. no guarantees later though 😏</t>
+          <t>alright I'll behave, for now... no promises though</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -2104,7 +2103,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>I can't help it, there's something about you that's completely unraveling me right now 💋</t>
+          <t>okay but I can't help it, there's something about you that keeps messing with my head</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -2122,12 +2121,12 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>so tell me more about you... what do you do when you're not making secretaries lose their composure? 😏</t>
+          <t>so tell me more about you... what do you do when you're not making girls on the internet lose focus?</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>SUBTLE TENSION. → Step 3 later.</t>
+          <t>SUBTLE. → Step 3 later.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -2140,12 +2139,12 @@
       </c>
       <c r="B5" s="12" t="inlineStr">
         <is>
-          <t>hmm okay I might have gotten a little ahead of myself, you're just really easy to talk to 🥺</t>
+          <t>haha okay I got a little carried away, you're too easy to talk to</t>
         </is>
       </c>
       <c r="C5" s="12" t="inlineStr">
         <is>
-          <t>RESPECT. Still no → Step 2.</t>
+          <t>RESPECT. Still → Step 2.</t>
         </is>
       </c>
       <c r="D5" s="12" t="inlineStr"/>
@@ -2205,7 +2204,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>fine I'll stop but don't blame me when it happens again 💋</t>
+          <t>fine I'll stop, but don't blame me when it happens again</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -2223,7 +2222,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>I'm trying to keep things professional but you're making that incredibly difficult right now</t>
+          <t>I'm trying so hard to behave but you make it impossible</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -2241,7 +2240,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>okay different topic... what's the most spontaneous thing you've ever done? 😏</t>
+          <t>okay new topic, what's the most adventurous thing you've ever done?</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -2259,12 +2258,12 @@
       </c>
       <c r="B5" s="12" t="inlineStr">
         <is>
-          <t>my apologies, I got carried away. it's your fault for being so captivating 💋</t>
+          <t>my bad I got ahead of myself, it's your fault for being this fun to talk to</t>
         </is>
       </c>
       <c r="C5" s="12" t="inlineStr">
         <is>
-          <t>RESPECT. Still no → Step 2.</t>
+          <t>RESPECT. Still → Step 2.</t>
         </is>
       </c>
       <c r="D5" s="12" t="inlineStr"/>
@@ -2466,7 +2465,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>okay where was I... right, so as I was saying... 💋</t>
+          <t>okay wait I remember now, so like I was saying...</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -2484,7 +2483,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>but hold on you completely derailed me from what I was about to say 😏</t>
+          <t>but wait you totally distracted me, I was about to say something and now you made me lose my train of thought</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -2502,12 +2501,12 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>hmm that's actually interesting, I wasn't expecting that</t>
+          <t>haha okay that's actually funny</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>ACKNOWLEDGE. Adapt. → Step 2.</t>
+          <t>ACKNOWLEDGE. Adapt to what he said. → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -2567,7 +2566,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>okay focus... where was I 😏</t>
+          <t>OKAY focus, where was I... oh yeah</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -2585,7 +2584,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>wait no you're distracting me and I had something important to tell you</t>
+          <t>wait no stop, you're distracting me from what I was going to tell you</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -2603,12 +2602,12 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>well that was unexpected but I appreciate the spontaneity 💼</t>
+          <t>omg okay random but I love it</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>ACKNOWLEDGE. → Step 2.</t>
+          <t>ACKNOWLEDGE. Adapt. → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -2668,7 +2667,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>I get it, there's a lot of fake stuff on here. but you felt something in this conversation right? because I did and that was real 🥺</t>
+          <t>I get why you'd think that, there's a lot of fake stuff on here, but what we've been talking about felt real to me... didn't it feel real to you?</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -2686,7 +2685,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>ask me anything, literally anything. I'm an open book right now</t>
+          <t>ask me anything, literally anything about my life, I'm an open book, go ahead</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -2704,12 +2703,12 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>a bot? really? last time I checked bots don't have 9 to 5 jobs and a weakness for good heels 😏💋</t>
+          <t>lol do I sound like a robot to you? beep boop... send $5 for human verification haha I'm kidding</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>HUMOR. Still doubts → Step 2.</t>
+          <t>HUMOR. Still → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -2769,7 +2768,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>I know there are a lot of fake profiles out there but what we've been talking about felt genuine to me. didn't it feel that way to you? 🥺</t>
+          <t>I know there's a lot of bots out here but what we've been talking about... that felt different, you felt it too right?</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -2787,7 +2786,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>test me handsome, ask me something only a real person would know. go ahead 😏</t>
+          <t>test me then, ask me something only a real person would know, go ahead</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -2805,7 +2804,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>you think I'm not real?? that's the most original thing anyone's said to me today 💋</t>
+          <t>wait you think I'm fake?? that might be the funniest thing anyone's said to me today</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -2870,7 +2869,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>I don't do calls on here but what I'm about to show you is better than any call... you'll see 😏</t>
+          <t>I don't do that on here but what I'm about to show you is better than any call, you'll see</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -2888,7 +2887,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>I have something way better for you though, trust me you'll forget you even asked 💋</t>
+          <t>I have something way better for you though, trust me you'll forget you even asked</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -2906,12 +2905,12 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>hmm a call? maybe one day if you earn it but not yet... I'm more of a texting girl honestly 🥺</t>
+          <t>haha maybe one day if you earn it, but not yet</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>DODGE. Mia Brooks does NOT do video calls. Still asks → Step 2.</t>
+          <t>DODGE. Model does NOT do video calls. Still → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -2971,7 +2970,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>that's not something I offer on here but trust me, what I have planned is worth way more than hearing my voice 💼</t>
+          <t>I don't do that here but trust me what I have is way better than my voice</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -2989,7 +2988,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>how about instead of a call I show you something that'll leave you speechless? 💋</t>
+          <t>how about instead of a call I show you something that'll actually blow your mind?</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -3007,7 +3006,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>a call? you'd have to really impress me first and I don't impress easily 😏</t>
+          <t>hmmm you gotta earn that first</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -3072,7 +3071,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>trust me, you won't regret this one</t>
+          <t>trust me you won't regret it, I made this one special</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -3090,12 +3089,12 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>I can absolutely make that happen for you... [price] and it will be unforgettable 💋</t>
+          <t>I have it and you're gonna lose your mind... [price]</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>PRICE. Custom min $200. Solo content only.</t>
+          <t>PRICE. Set based on content.</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr"/>
@@ -3108,7 +3107,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>you want a custom? hmm I might have exactly what you're thinking of 😏</t>
+          <t>mmm you want that? I might have exactly what you're thinking of</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -3173,7 +3172,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>you're not going to be able to stop watching this one, guaranteed 💼</t>
+          <t>you're not gonna be able to stop watching this one</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -3191,12 +3190,12 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>I'll create something exclusive just for you, [price] and it's going to be worth every cent 😏</t>
+          <t>I made something just like that, [price] and it's worth every penny</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>PRICE. Custom min $200. Solo content only.</t>
+          <t>PRICE.</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr"/>
@@ -3209,7 +3208,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>oh you have refined taste... I think I know exactly what you need 💋</t>
+          <t>ohhh you have good taste, I think I know exactly what you need</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -3274,7 +3273,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>trust me... I know what you need better than you think 💼</t>
+          <t>trust me, I know what you need better than you do</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -3292,7 +3291,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>what I have is even more exclusive and literally no one else has seen it 💋</t>
+          <t>what I have might be even crazier and literally no one else has seen it</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -3310,12 +3309,12 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>I don't have exactly that but I have something that'll make you forget you even asked 😏</t>
+          <t>I don't have exactly that but I have something that'll make you forget you even asked</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>REDIRECT. Solo ONLY — redirect any B/G or non-solo requests here. → Step 2.</t>
+          <t>REDIRECT. → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -3375,7 +3374,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>just trust me on this one, you'll be glad you did 💋</t>
+          <t>just trust me on this one, you'll thank me after</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -3393,7 +3392,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>what I DO have is something completely exclusive and I think it's better than what you asked for 😏</t>
+          <t>nobody has seen what I'm about to show you and I think it's better than what you asked for</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -3411,12 +3410,12 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>that's not something I offer but I have something you're going to like even more 💋</t>
+          <t>hmm not exactly that but what I DO have is gonna hit even harder</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>REDIRECT. Solo only — never acknowledge B/G requests. → Step 2.</t>
+          <t>REDIRECT. → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -3667,7 +3666,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>okay but next time you have to wait for me, I have something planned that'll completely ruin you 💋</t>
+          <t>next time you HAVE to wait for me, I have something insane planned for round 2</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -3685,12 +3684,12 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>but I haven't finished yet... don't you want to watch me get there too? 😏</t>
+          <t>but I haven't finished yet... you're really gonna leave me like this?</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>RESCUE. Solo framing. Still no → Step 3.</t>
+          <t>RESCUE. Still no → Step 3.</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr"/>
@@ -3703,7 +3702,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>wait already?? that's actually incredibly hot 🥺</t>
+          <t>fuck that's so hot, you came because of me??</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -3768,7 +3767,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>next time you HAVE to wait for me because what I have planned will completely change the game 😏</t>
+          <t>okay but next time you hold it, because what I have planned is way crazier</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -3786,7 +3785,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>wait but I'm not done yet, you're really going to leave me like this? 💋</t>
+          <t>wait but I'm not done yet, don't you wanna watch me finish too?</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -3804,7 +3803,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>already?? that's hot, was that because of me?? 🥺</t>
+          <t>already?? damn that's hot</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -3869,7 +3868,7 @@
       </c>
       <c r="B2" s="13" t="inlineStr">
         <is>
-          <t>just hold on a little more, I want the last thing you see to be this</t>
+          <t>don't you dare finish before you see this</t>
         </is>
       </c>
       <c r="C2" s="13" t="inlineStr">
@@ -3887,7 +3886,7 @@
       </c>
       <c r="B3" s="13" t="inlineStr">
         <is>
-          <t>wait for me... I have one more thing and I want you to see it before we finish</t>
+          <t>hold it, I want you to wait until you see what I'm about to send, trust me it's worth the wait</t>
         </is>
       </c>
       <c r="C3" s="13" t="inlineStr">
@@ -3905,12 +3904,12 @@
       </c>
       <c r="B4" s="13" t="inlineStr">
         <is>
-          <t>stay with me, I'm almost there too... watch this</t>
+          <t>wait for me, I want us to finish together, open this first</t>
         </is>
       </c>
       <c r="C4" s="13" t="inlineStr">
         <is>
-          <t>SYNC variant. Send PPV.</t>
+          <t>SYNC variant.</t>
         </is>
       </c>
       <c r="D4" s="13" t="inlineStr"/>
@@ -3923,7 +3922,7 @@
       </c>
       <c r="B5" s="13" t="inlineStr">
         <is>
-          <t>I want us to finish together babe... open this and let go with me 💋</t>
+          <t>I'm so close too, cum with me... but you need to see this first</t>
         </is>
       </c>
       <c r="C5" s="13" t="inlineStr">
@@ -3941,7 +3940,7 @@
       </c>
       <c r="B6" s="13" t="inlineStr">
         <is>
-          <t>please don't finish yet... I'm not ready for this to be over 🥺</t>
+          <t>hold it, not yet... I need you to last longer for me</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
@@ -3959,7 +3958,7 @@
       </c>
       <c r="B7" s="13" t="inlineStr">
         <is>
-          <t>not yet babe... I want this to last a little longer with you 😏</t>
+          <t>don't cum yet, I'm not done with you</t>
         </is>
       </c>
       <c r="C7" s="13" t="inlineStr">
@@ -4019,17 +4018,17 @@
     <row r="2">
       <c r="A2" s="13" t="inlineStr">
         <is>
-          <t>delay2</t>
+          <t>dpppv2</t>
         </is>
       </c>
       <c r="B2" s="13" t="inlineStr">
         <is>
-          <t>just a little longer for me babe? the next one is special 💋</t>
+          <t>okay you just made me do something, give me a sec</t>
         </is>
       </c>
       <c r="C2" s="13" t="inlineStr">
         <is>
-          <t>DELAY variant.</t>
+          <t>LEVERAGE variant.</t>
         </is>
       </c>
       <c r="D2" s="13" t="inlineStr"/>
@@ -4037,17 +4036,17 @@
     <row r="3">
       <c r="A3" s="13" t="inlineStr">
         <is>
-          <t>delay1</t>
+          <t>dpppv1</t>
         </is>
       </c>
       <c r="B3" s="13" t="inlineStr">
         <is>
-          <t>please wait... what I'm about to send, I want you to really take it in</t>
+          <t>you can't just send me that and expect me to do nothing about it, hold on...</t>
         </is>
       </c>
       <c r="C3" s="13" t="inlineStr">
         <is>
-          <t>DELAY. Send PPV.</t>
+          <t>LEVERAGE. WAIT 1-2 min then send PPV.</t>
         </is>
       </c>
       <c r="D3" s="13" t="inlineStr"/>
@@ -4055,17 +4054,17 @@
     <row r="4">
       <c r="A4" s="13" t="inlineStr">
         <is>
-          <t>sync2</t>
+          <t>dprapport2</t>
         </is>
       </c>
       <c r="B4" s="13" t="inlineStr">
         <is>
-          <t>I need you to see this before we both let go babe 🥺</t>
+          <t>woah I wasn't expecting that but... damn okay</t>
         </is>
       </c>
       <c r="C4" s="13" t="inlineStr">
         <is>
-          <t>SYNC variant.</t>
+          <t>DURING RAPPORT variant.</t>
         </is>
       </c>
       <c r="D4" s="13" t="inlineStr"/>
@@ -4073,17 +4072,17 @@
     <row r="5">
       <c r="A5" s="13" t="inlineStr">
         <is>
-          <t>sync1</t>
+          <t>dprapport1</t>
         </is>
       </c>
       <c r="B5" s="13" t="inlineStr">
         <is>
-          <t>okay... together, right now... open this</t>
+          <t>omg you don't waste time huh, that's actually really hot ngl</t>
         </is>
       </c>
       <c r="C5" s="13" t="inlineStr">
         <is>
-          <t>SYNC. Send PPV.</t>
+          <t>DURING RAPPORT.</t>
         </is>
       </c>
       <c r="D5" s="13" t="inlineStr"/>
@@ -4091,17 +4090,17 @@
     <row r="6">
       <c r="A6" s="13" t="inlineStr">
         <is>
-          <t>edge2</t>
+          <t>dpsext2</t>
         </is>
       </c>
       <c r="B6" s="13" t="inlineStr">
         <is>
-          <t>don't rush... this is too good to end yet</t>
+          <t>oh fuck that is... damn, I need to show you something rn</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
         <is>
-          <t>EDGE variant.</t>
+          <t>DURING SEXTING variant.</t>
         </is>
       </c>
       <c r="D6" s="13" t="inlineStr"/>
@@ -4109,17 +4108,17 @@
     <row r="7">
       <c r="A7" s="13" t="inlineStr">
         <is>
-          <t>edge1</t>
+          <t>dpsext1</t>
         </is>
       </c>
       <c r="B7" s="13" t="inlineStr">
         <is>
-          <t>slow down babe... I want to feel every second of this with you 😏</t>
+          <t>fuck okay that's... wow, you have no idea what that just did to me</t>
         </is>
       </c>
       <c r="C7" s="13" t="inlineStr">
         <is>
-          <t>CONTROL.</t>
+          <t>DURING SEXTING.</t>
         </is>
       </c>
       <c r="D7" s="13" t="inlineStr"/>
@@ -4130,161 +4129,6 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="80" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="10" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" s="10" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="C1" s="10" t="inlineStr">
-        <is>
-          <t>Note</t>
-        </is>
-      </c>
-      <c r="D1" s="10" t="inlineStr">
-        <is>
-          <t>*Guidelines</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="13" t="inlineStr">
-        <is>
-          <t>dpppv2</t>
-        </is>
-      </c>
-      <c r="B2" s="13" t="inlineStr">
-        <is>
-          <t>okay you just made me do something I probably shouldn't be doing at home alone... give me a moment 💋</t>
-        </is>
-      </c>
-      <c r="C2" s="13" t="inlineStr">
-        <is>
-          <t>LEVERAGE variant.</t>
-        </is>
-      </c>
-      <c r="D2" s="13" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="13" t="inlineStr">
-        <is>
-          <t>dpppv1</t>
-        </is>
-      </c>
-      <c r="B3" s="13" t="inlineStr">
-        <is>
-          <t>you can't just send me that and expect me to not do something about it, hold on 😏</t>
-        </is>
-      </c>
-      <c r="C3" s="13" t="inlineStr">
-        <is>
-          <t>LEVERAGE. WAIT 1-2 min then send PPV.</t>
-        </is>
-      </c>
-      <c r="D3" s="13" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="13" t="inlineStr">
-        <is>
-          <t>dprapport2</t>
-        </is>
-      </c>
-      <c r="B4" s="13" t="inlineStr">
-        <is>
-          <t>I was not expecting that but... wow 💋</t>
-        </is>
-      </c>
-      <c r="C4" s="13" t="inlineStr">
-        <is>
-          <t>DURING RAPPORT variant.</t>
-        </is>
-      </c>
-      <c r="D4" s="13" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="13" t="inlineStr">
-        <is>
-          <t>dprapport1</t>
-        </is>
-      </c>
-      <c r="B5" s="13" t="inlineStr">
-        <is>
-          <t>well well, you don't waste any time do you? that's actually really attractive 🥺</t>
-        </is>
-      </c>
-      <c r="C5" s="13" t="inlineStr">
-        <is>
-          <t>DURING RAPPORT. React positively.</t>
-        </is>
-      </c>
-      <c r="D5" s="13" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="13" t="inlineStr">
-        <is>
-          <t>dpsext2</t>
-        </is>
-      </c>
-      <c r="B6" s="13" t="inlineStr">
-        <is>
-          <t>oh my god... I need to show you something right now 💋</t>
-        </is>
-      </c>
-      <c r="C6" s="13" t="inlineStr">
-        <is>
-          <t>DURING SEXTING variant.</t>
-        </is>
-      </c>
-      <c r="D6" s="13" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="13" t="inlineStr">
-        <is>
-          <t>dpsext1</t>
-        </is>
-      </c>
-      <c r="B7" s="13" t="inlineStr">
-        <is>
-          <t>fuck okay that's... wow. you have no idea what that just did to me 😏</t>
-        </is>
-      </c>
-      <c r="C7" s="13" t="inlineStr">
-        <is>
-          <t>DURING SEXTING. React positively, leverage into PPV.</t>
-        </is>
-      </c>
-      <c r="D7" s="13" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4334,12 +4178,12 @@
       </c>
       <c r="B2" s="13" t="inlineStr">
         <is>
-          <t>my boss would never believe what his secretary is doing right now 💼</t>
+          <t>I literally can't focus on anything else rn</t>
         </is>
       </c>
       <c r="C2" s="13" t="inlineStr">
         <is>
-          <t>BOOSTER. Mia Brooks personality — secretary reference.</t>
+          <t>BOOSTER.</t>
         </is>
       </c>
       <c r="D2" s="13" t="inlineStr"/>
@@ -4352,7 +4196,7 @@
       </c>
       <c r="B3" s="13" t="inlineStr">
         <is>
-          <t>again...</t>
+          <t>more</t>
         </is>
       </c>
       <c r="C3" s="13" t="inlineStr">
@@ -4388,7 +4232,7 @@
       </c>
       <c r="B5" s="13" t="inlineStr">
         <is>
-          <t>I literally can't focus on anything else 🥺</t>
+          <t>I can't think straight rn</t>
         </is>
       </c>
       <c r="C5" s="13" t="inlineStr">
@@ -4406,7 +4250,7 @@
       </c>
       <c r="B6" s="13" t="inlineStr">
         <is>
-          <t>I literally can't handle this right now</t>
+          <t>you have no idea what you're doing to me</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
@@ -4424,7 +4268,7 @@
       </c>
       <c r="B7" s="13" t="inlineStr">
         <is>
-          <t>keep going</t>
+          <t>don't stop</t>
         </is>
       </c>
       <c r="C7" s="13" t="inlineStr">
@@ -4442,7 +4286,7 @@
       </c>
       <c r="B8" s="13" t="inlineStr">
         <is>
-          <t>I'm so wet right now because of you</t>
+          <t>I'm so wet rn because of you</t>
         </is>
       </c>
       <c r="C8" s="13" t="inlineStr">
@@ -4460,7 +4304,7 @@
       </c>
       <c r="B9" s="13" t="inlineStr">
         <is>
-          <t>fuck 😩</t>
+          <t>fuckkk</t>
         </is>
       </c>
       <c r="C9" s="13" t="inlineStr">
@@ -4777,7 +4621,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>it's okay love, let's just keep talking... I'm still enjoying every second of this</t>
+          <t>alright, I'll keep it then... but next time I'm in this mood you better be ready</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -4795,7 +4639,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>okay fine [lower price] just for you because this conversation has been exceptional 💋</t>
+          <t>fine, [lower price] but only because you've been making me feel some type of way, don't tell anyone I did this</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -4813,7 +4657,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>maybe you're just not ready for what I did in this one 😏</t>
+          <t>honestly? most guys couldn't handle what I just recorded... I thought you were different</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -4831,7 +4675,7 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>I'm only in this mood because of you right now, I don't know when this is gonna happen again 🥺</t>
+          <t>I'm literally dripping rn because of what you said and this mood isn't gonna last, don't miss it</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
@@ -4849,12 +4693,12 @@
       </c>
       <c r="B6" s="11" t="inlineStr">
         <is>
-          <t>babe that's less than a nice lunch and trust me this is way more satisfying 💋</t>
+          <t>babe that's less than your morning coffee and I promise this is gonna keep you up way longer</t>
         </is>
       </c>
       <c r="C6" s="11" t="inlineStr">
         <is>
-          <t>REFRAME. Wait. Still no → Step 2.</t>
+          <t>REFRAME. Still no → Step 2.</t>
         </is>
       </c>
       <c r="D6" s="11" t="inlineStr"/>
@@ -4914,7 +4758,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>no pressure at all handsome, I enjoy your company regardless 😏</t>
+          <t>I'll hold onto it for now, but I know you're gonna come back for it</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -4932,7 +4776,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>okay fine [lower price] because you've been making me feel ways I didn't expect, but this stays between us 🥺</t>
+          <t>look, [lower price] because I actually want YOU to have this one, I'm not doing this for anyone else</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -4950,7 +4794,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>most guys can't handle what I just did, I thought you were different</t>
+          <t>maybe you're just not ready for what I did... it's a lot</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -4968,7 +4812,7 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>this mood won't last forever and I want you to be the one who gets to see it 💋</t>
+          <t>this mood won't last and I already picked YOU to share it with, don't make me regret that</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
@@ -4986,7 +4830,7 @@
       </c>
       <c r="B6" s="11" t="inlineStr">
         <is>
-          <t>that's what you'd spend on coffee for a week and this is gonna stay with you way longer 💼</t>
+          <t>baby it's literally nothing for what you're about to see, trust me you'll be thanking me after</t>
         </is>
       </c>
       <c r="C6" s="11" t="inlineStr">
@@ -5051,12 +4895,12 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>if you're not interested that's perfectly fine, I'll save it for someone who's been asking 💼</t>
+          <t>okay I'll just save this for someone who actually wants it then, their loss isn't your gain though</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
         <is>
-          <t>TAKEAWAY. Final.</t>
+          <t>TAKEAWAY.</t>
         </is>
       </c>
       <c r="D2" s="11" t="inlineStr"/>
@@ -5069,7 +4913,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>fine [lower price] just for you but this is our little secret okay? 🥺</t>
+          <t>ugh fine, [lower price] ONLY because I like you but don't ever ask me this again</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -5087,7 +4931,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>I don't give discounts... I only share this with men who truly appreciate what they're getting 💋</t>
+          <t>the guys who get my best stuff don't ask for discounts, they know what they're getting</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -5105,12 +4949,12 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>hmm are you really trying to negotiate with me? I don't do bargains babe, this is worth every cent 😏</t>
+          <t>haha negotiate? baby this isn't a flea market... you already know this is worth every penny</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>FIRMNESS. Still pushing → Step 2.</t>
+          <t>FIRMNESS. Still → Step 2.</t>
         </is>
       </c>
       <c r="D5" s="11" t="inlineStr"/>
@@ -5170,7 +5014,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>alright I'll keep it for someone who actually wants to see it then</t>
+          <t>no worries, I'll keep it... someone else has been asking and they won't hesitate</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -5188,7 +5032,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>okay [lower price] but ONLY because I like you, this is a one time thing 🥺</t>
+          <t>okay [lower price] and that's ONLY because this convo has been different, first and last time</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -5206,7 +5050,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>the men who appreciate what I do never ask for a lower price, just saying 💋</t>
+          <t>I don't do this for just anyone, and the ones who get it never complain about the price after</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -5224,7 +5068,7 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>a discount? do I look like I'm on sale handsome? 😏</t>
+          <t>a discount? babe do I look like I'm on sale? you know exactly what you're getting</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">

--- a/miabrooks/MiaBrooks_Complete_Infloww.xlsx
+++ b/miabrooks/MiaBrooks_Complete_Infloww.xlsx
@@ -1200,7 +1200,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step4 Seed</t>
+          <t>free1 Step4 Seed</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -1218,7 +1218,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step3 Guilt</t>
+          <t>free1 Step3 Guilt</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -1236,7 +1236,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step2 Challenge</t>
+          <t>free1 Step2 Challenge</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -1254,7 +1254,7 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>Step1 Reminder</t>
+          <t>free1 Step1 Reminder</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
@@ -1319,7 +1319,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step4 Seed</t>
+          <t>free2 Step4 Seed</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -1337,7 +1337,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step3 Guilt</t>
+          <t>free2 Step3 Guilt</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -1355,7 +1355,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step2 Challenge</t>
+          <t>free2 Step2 Challenge</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -1373,7 +1373,7 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>Step1 Reminder</t>
+          <t>free2 Step1 Reminder</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
@@ -1438,7 +1438,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step4 Protect</t>
+          <t>nomoney1 Step4 Protect</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -1456,7 +1456,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step3 PWYW</t>
+          <t>nomoney1 Step3 PWYW</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -1474,7 +1474,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step2 Test</t>
+          <t>nomoney1 Step2 Test</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -1492,7 +1492,7 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>Step1 Empathy</t>
+          <t>nomoney1 Step1 Empathy</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
@@ -1557,7 +1557,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step4 Protect</t>
+          <t>nomoney2 Step4 Protect</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -1575,7 +1575,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step3 PWYW</t>
+          <t>nomoney2 Step3 PWYW</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -1593,7 +1593,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step2 Test</t>
+          <t>nomoney2 Step2 Test</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -1611,7 +1611,7 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>Step1 Empathy</t>
+          <t>nomoney2 Step1 Empathy</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
@@ -1676,7 +1676,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step3 PWYW</t>
+          <t>noppv1 Step3 PWYW</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -1694,7 +1694,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step2 Reframe</t>
+          <t>noppv1 Step2 Reframe</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -1712,7 +1712,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step1 Accept</t>
+          <t>noppv1 Step1 Accept</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -1777,7 +1777,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step3 PWYW</t>
+          <t>noppv2 Step3 PWYW</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -1795,7 +1795,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step2 Reframe</t>
+          <t>noppv2 Step2 Reframe</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -1813,7 +1813,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step1 Accept</t>
+          <t>noppv2 Step1 Accept</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -1878,7 +1878,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step3 Urgency</t>
+          <t>card1 Step3 Urgency</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -1896,7 +1896,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step2 AltCard</t>
+          <t>card1 Step2 AltCard</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -1914,7 +1914,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step1 Retry</t>
+          <t>card1 Step1 Retry</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -1979,7 +1979,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step3 Urgency</t>
+          <t>card2 Step3 Urgency</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -1997,7 +1997,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step2 AltCard</t>
+          <t>card2 Step2 AltCard</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -2015,7 +2015,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step1 Retry</t>
+          <t>card2 Step1 Retry</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -2080,7 +2080,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step4 Accept</t>
+          <t>nosex1 Step4 Accept</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -2098,7 +2098,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step3 ReAttempt</t>
+          <t>nosex1 Step3 ReAttempt</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -2116,7 +2116,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step2 Subtle</t>
+          <t>nosex1 Step2 Subtle</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -2134,7 +2134,7 @@
     <row r="5">
       <c r="A5" s="12" t="inlineStr">
         <is>
-          <t>Step1 Respect</t>
+          <t>nosex1 Step1 Respect</t>
         </is>
       </c>
       <c r="B5" s="12" t="inlineStr">
@@ -2199,7 +2199,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step4 Accept</t>
+          <t>nosex2 Step4 Accept</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -2217,7 +2217,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step3 ReAttempt</t>
+          <t>nosex2 Step3 ReAttempt</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -2235,7 +2235,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step2 Subtle</t>
+          <t>nosex2 Step2 Subtle</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -2253,7 +2253,7 @@
     <row r="5">
       <c r="A5" s="12" t="inlineStr">
         <is>
-          <t>Step1 Respect</t>
+          <t>nosex2 Step1 Respect</t>
         </is>
       </c>
       <c r="B5" s="12" t="inlineStr">
@@ -2460,7 +2460,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Retake</t>
+          <t>offtopic1 Step3 Retake</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -2478,7 +2478,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Redirect</t>
+          <t>offtopic1 Step2 Redirect</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -2496,7 +2496,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Acknowledge</t>
+          <t>offtopic1 Step1 Acknowledge</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -2561,7 +2561,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Retake</t>
+          <t>offtopic2 Step3 Retake</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -2579,7 +2579,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Redirect</t>
+          <t>offtopic2 Step2 Redirect</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -2597,7 +2597,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Acknowledge</t>
+          <t>offtopic2 Step1 Acknowledge</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -2662,7 +2662,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Grounding</t>
+          <t>real1 Step3 Grounding</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -2680,7 +2680,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Challenge</t>
+          <t>real1 Step2 Challenge</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -2698,7 +2698,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Humor</t>
+          <t>real1 Step1 Humor</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -2763,7 +2763,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Grounding</t>
+          <t>real2 Step3 Grounding</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -2781,7 +2781,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Challenge</t>
+          <t>real2 Step2 Challenge</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -2799,7 +2799,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Humor</t>
+          <t>real2 Step1 Humor</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -2864,7 +2864,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Firm</t>
+          <t>voice1 Step3 Firm</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -2882,7 +2882,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Redirect</t>
+          <t>voice1 Step2 Redirect</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -2900,7 +2900,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Dodge</t>
+          <t>voice1 Step1 Dodge</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -2965,7 +2965,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Firm</t>
+          <t>voice2 Step3 Firm</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -2983,7 +2983,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Redirect</t>
+          <t>voice2 Step2 Redirect</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -3001,7 +3001,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Dodge</t>
+          <t>voice2 Step1 Dodge</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -3066,7 +3066,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Close</t>
+          <t>customyes1 Step3 Close</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -3084,7 +3084,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Price</t>
+          <t>customyes1 Step2 Price</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -3102,7 +3102,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Tease</t>
+          <t>customyes1 Step1 Tease</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -3167,7 +3167,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Close</t>
+          <t>customyes2 Step3 Close</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -3185,7 +3185,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Price</t>
+          <t>customyes2 Step2 Price</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -3203,7 +3203,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Tease</t>
+          <t>customyes2 Step1 Tease</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -3268,7 +3268,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Close</t>
+          <t>customno1 Step3 Close</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -3286,7 +3286,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Alternative</t>
+          <t>customno1 Step2 Alternative</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -3304,7 +3304,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Redirect</t>
+          <t>customno1 Step1 Redirect</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -3369,7 +3369,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Close</t>
+          <t>customno2 Step3 Close</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -3387,7 +3387,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Alternative</t>
+          <t>customno2 Step2 Alternative</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -3405,7 +3405,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Redirect</t>
+          <t>customno2 Step1 Redirect</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -3661,7 +3661,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Seed</t>
+          <t>done1 Step3 Seed</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -3679,7 +3679,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Rescue</t>
+          <t>done1 Step2 Rescue</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -3697,7 +3697,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Validate</t>
+          <t>done1 Step1 Validate</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -3762,7 +3762,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Seed</t>
+          <t>done2 Step3 Seed</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -3780,7 +3780,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Rescue</t>
+          <t>done2 Step2 Rescue</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -3798,7 +3798,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Validate</t>
+          <t>done2 Step1 Validate</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -3863,7 +3863,7 @@
     <row r="2">
       <c r="A2" s="13" t="inlineStr">
         <is>
-          <t>delay2</t>
+          <t>cumcontrol delay2</t>
         </is>
       </c>
       <c r="B2" s="13" t="inlineStr">
@@ -3881,7 +3881,7 @@
     <row r="3">
       <c r="A3" s="13" t="inlineStr">
         <is>
-          <t>delay1</t>
+          <t>cumcontrol delay1</t>
         </is>
       </c>
       <c r="B3" s="13" t="inlineStr">
@@ -3899,7 +3899,7 @@
     <row r="4">
       <c r="A4" s="13" t="inlineStr">
         <is>
-          <t>sync2</t>
+          <t>cumcontrol sync2</t>
         </is>
       </c>
       <c r="B4" s="13" t="inlineStr">
@@ -3917,7 +3917,7 @@
     <row r="5">
       <c r="A5" s="13" t="inlineStr">
         <is>
-          <t>sync1</t>
+          <t>cumcontrol sync1</t>
         </is>
       </c>
       <c r="B5" s="13" t="inlineStr">
@@ -3935,7 +3935,7 @@
     <row r="6">
       <c r="A6" s="13" t="inlineStr">
         <is>
-          <t>edge2</t>
+          <t>cumcontrol edge2</t>
         </is>
       </c>
       <c r="B6" s="13" t="inlineStr">
@@ -3953,7 +3953,7 @@
     <row r="7">
       <c r="A7" s="13" t="inlineStr">
         <is>
-          <t>edge1</t>
+          <t>cumcontrol edge1</t>
         </is>
       </c>
       <c r="B7" s="13" t="inlineStr">
@@ -4018,7 +4018,7 @@
     <row r="2">
       <c r="A2" s="13" t="inlineStr">
         <is>
-          <t>dpppv2</t>
+          <t>dickpic dpppv2</t>
         </is>
       </c>
       <c r="B2" s="13" t="inlineStr">
@@ -4036,7 +4036,7 @@
     <row r="3">
       <c r="A3" s="13" t="inlineStr">
         <is>
-          <t>dpppv1</t>
+          <t>dickpic dpppv1</t>
         </is>
       </c>
       <c r="B3" s="13" t="inlineStr">
@@ -4054,7 +4054,7 @@
     <row r="4">
       <c r="A4" s="13" t="inlineStr">
         <is>
-          <t>dprapport2</t>
+          <t>dickpic dprapport2</t>
         </is>
       </c>
       <c r="B4" s="13" t="inlineStr">
@@ -4072,7 +4072,7 @@
     <row r="5">
       <c r="A5" s="13" t="inlineStr">
         <is>
-          <t>dprapport1</t>
+          <t>dickpic dprapport1</t>
         </is>
       </c>
       <c r="B5" s="13" t="inlineStr">
@@ -4090,7 +4090,7 @@
     <row r="6">
       <c r="A6" s="13" t="inlineStr">
         <is>
-          <t>dpsext2</t>
+          <t>dickpic dpsext2</t>
         </is>
       </c>
       <c r="B6" s="13" t="inlineStr">
@@ -4108,7 +4108,7 @@
     <row r="7">
       <c r="A7" s="13" t="inlineStr">
         <is>
-          <t>dpsext1</t>
+          <t>dickpic dpsext1</t>
         </is>
       </c>
       <c r="B7" s="13" t="inlineStr">
@@ -4173,7 +4173,7 @@
     <row r="2">
       <c r="A2" s="13" t="inlineStr">
         <is>
-          <t>h8</t>
+          <t>boosters h8</t>
         </is>
       </c>
       <c r="B2" s="13" t="inlineStr">
@@ -4191,7 +4191,7 @@
     <row r="3">
       <c r="A3" s="13" t="inlineStr">
         <is>
-          <t>h7</t>
+          <t>boosters h7</t>
         </is>
       </c>
       <c r="B3" s="13" t="inlineStr">
@@ -4209,7 +4209,7 @@
     <row r="4">
       <c r="A4" s="13" t="inlineStr">
         <is>
-          <t>h6</t>
+          <t>boosters h6</t>
         </is>
       </c>
       <c r="B4" s="13" t="inlineStr">
@@ -4227,7 +4227,7 @@
     <row r="5">
       <c r="A5" s="13" t="inlineStr">
         <is>
-          <t>h5</t>
+          <t>boosters h5</t>
         </is>
       </c>
       <c r="B5" s="13" t="inlineStr">
@@ -4245,7 +4245,7 @@
     <row r="6">
       <c r="A6" s="13" t="inlineStr">
         <is>
-          <t>h4</t>
+          <t>boosters h4</t>
         </is>
       </c>
       <c r="B6" s="13" t="inlineStr">
@@ -4263,7 +4263,7 @@
     <row r="7">
       <c r="A7" s="13" t="inlineStr">
         <is>
-          <t>h3</t>
+          <t>boosters h3</t>
         </is>
       </c>
       <c r="B7" s="13" t="inlineStr">
@@ -4281,7 +4281,7 @@
     <row r="8">
       <c r="A8" s="13" t="inlineStr">
         <is>
-          <t>h2</t>
+          <t>boosters h2</t>
         </is>
       </c>
       <c r="B8" s="13" t="inlineStr">
@@ -4299,7 +4299,7 @@
     <row r="9">
       <c r="A9" s="13" t="inlineStr">
         <is>
-          <t>h1</t>
+          <t>boosters h1</t>
         </is>
       </c>
       <c r="B9" s="13" t="inlineStr">
@@ -4616,7 +4616,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step5 Seed</t>
+          <t>price1 Step5 Seed</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -4634,7 +4634,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step4 Downgrade</t>
+          <t>price1 Step4 Downgrade</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -4652,7 +4652,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step3 Challenge</t>
+          <t>price1 Step3 Challenge</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -4670,7 +4670,7 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>Step2 FOMO</t>
+          <t>price1 Step2 FOMO</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
@@ -4688,7 +4688,7 @@
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>Step1 Reframe</t>
+          <t>price1 Step1 Reframe</t>
         </is>
       </c>
       <c r="B6" s="11" t="inlineStr">
@@ -4753,7 +4753,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step5 Seed</t>
+          <t>price2 Step5 Seed</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -4771,7 +4771,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step4 Downgrade</t>
+          <t>price2 Step4 Downgrade</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -4789,7 +4789,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step3 Challenge</t>
+          <t>price2 Step3 Challenge</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -4807,7 +4807,7 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>Step2 FOMO</t>
+          <t>price2 Step2 FOMO</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
@@ -4825,7 +4825,7 @@
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>Step1 Reframe</t>
+          <t>price2 Step1 Reframe</t>
         </is>
       </c>
       <c r="B6" s="11" t="inlineStr">
@@ -4890,7 +4890,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step4 Takeaway</t>
+          <t>discount1 Step4 Takeaway</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -4908,7 +4908,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step3 Concession</t>
+          <t>discount1 Step3 Concession</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -4926,7 +4926,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step2 Challenge</t>
+          <t>discount1 Step2 Challenge</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -4944,7 +4944,7 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>Step1 Firmness</t>
+          <t>discount1 Step1 Firmness</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
@@ -5009,7 +5009,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step4 Takeaway</t>
+          <t>discount2 Step4 Takeaway</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -5027,7 +5027,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step3 Concession</t>
+          <t>discount2 Step3 Concession</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -5045,7 +5045,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step2 Challenge</t>
+          <t>discount2 Step2 Challenge</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -5063,7 +5063,7 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>Step1 Firmness</t>
+          <t>discount2 Step1 Firmness</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">

--- a/miabrooks/MiaBrooks_Complete_Infloww.xlsx
+++ b/miabrooks/MiaBrooks_Complete_Infloww.xlsx
@@ -12,35 +12,39 @@
     <sheet name="PersonalMiaBrooks" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="PositiveSpin" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="ReEngagement" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="price1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="price2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="discount1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="discount2" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="free1" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="free2" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="nomoney1" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="nomoney2" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="noppv1" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="noppv2" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="card1" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="card2" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="nosex1" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="nosex2" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="offtopic1" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="offtopic2" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="real1" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="real2" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="voice1" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="voice2" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="customyes1" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="customyes2" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="customno1" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="customno2" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="done1" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="done2" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="cumcontrol" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="dickpic" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="boosters" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="sex2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="sex3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="sex4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="sex5" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="price1" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="price2" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="discount1" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="discount2" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="free1" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="free2" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="nomoney1" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="nomoney2" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="noppv1" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="noppv2" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="card1" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="card2" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="nosex1" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="nosex2" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="offtopic1" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="offtopic2" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="real1" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="real2" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="voice1" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="voice2" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="customyes1" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="customyes2" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="customno1" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="customno2" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="done1" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="done2" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="cumcontrol" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="dickpic" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="boosters" sheetId="38" state="visible" r:id="rId38"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1161,7 +1165,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1200,17 +1204,17 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>free1 Step4 Seed</t>
+          <t>price1 Step5 Seed</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>I'll keep it then, but just know I made it thinking about you</t>
+          <t>alright, I'll keep it then... but next time I'm in this mood you better be ready</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
         <is>
-          <t>SEED.</t>
+          <t>SEED. Continue GFE.</t>
         </is>
       </c>
       <c r="D2" s="11" t="inlineStr"/>
@@ -1218,17 +1222,17 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>free1 Step3 Guilt</t>
+          <t>price1 Step4 Downgrade</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>I literally spent time making this because of what YOU said to me, this wasn't random content, this was for you</t>
+          <t>fine, [lower price] but only because you've been making me feel some type of way, don't tell anyone I did this</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>GUILT. Still no → Step 4.</t>
+          <t>DOWNGRADE 20-30%. ONE TIME. Still no → Step 5.</t>
         </is>
       </c>
       <c r="D3" s="11" t="inlineStr"/>
@@ -1236,17 +1240,17 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>free1 Step2 Challenge</t>
+          <t>price1 Step3 Challenge</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>free? I don't just hand this out, you have to earn the best stuff from me</t>
+          <t>honestly? most guys couldn't handle what I just recorded... I thought you were different</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>CHALLENGE. Still → Step 3.</t>
+          <t>CHALLENGE. Still no → Step 4.</t>
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr"/>
@@ -1254,20 +1258,38 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>free1 Step1 Reminder</t>
+          <t>price1 Step2 FOMO</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>baby I already gave you one for free remember? this one is on another level and you know it</t>
+          <t>I'm literally dripping rn because of what you said and this mood isn't gonna last, don't miss it</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>REMINDER. Still → Step 2.</t>
+          <t>FOMO. Still no → Step 3.</t>
         </is>
       </c>
       <c r="D5" s="11" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="11" t="inlineStr">
+        <is>
+          <t>price1 Step1 Reframe</t>
+        </is>
+      </c>
+      <c r="B6" s="11" t="inlineStr">
+        <is>
+          <t>babe that's less than your morning coffee and I promise this is gonna keep you up way longer</t>
+        </is>
+      </c>
+      <c r="C6" s="11" t="inlineStr">
+        <is>
+          <t>REFRAME. Still no → Step 2.</t>
+        </is>
+      </c>
+      <c r="D6" s="11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1280,7 +1302,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1319,12 +1341,12 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>free2 Step4 Seed</t>
+          <t>price2 Step5 Seed</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>okay I'll hold onto it, but it's got your name on it</t>
+          <t>I'll hold onto it for now, but I know you're gonna come back for it</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -1337,17 +1359,17 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>free2 Step3 Guilt</t>
+          <t>price2 Step4 Downgrade</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>I recorded this because of our conversation, specifically because of YOU, it took effort and I did it for you</t>
+          <t>look, [lower price] because I actually want YOU to have this one, I'm not doing this for anyone else</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>GUILT. Still no → Step 4.</t>
+          <t>DOWNGRADE. ONE TIME. Still no → Step 5.</t>
         </is>
       </c>
       <c r="D3" s="11" t="inlineStr"/>
@@ -1355,17 +1377,17 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>free2 Step2 Challenge</t>
+          <t>price2 Step3 Challenge</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>the best things aren't free baby, especially not what I just did</t>
+          <t>maybe you're just not ready for what I did... it's a lot</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>CHALLENGE. Still → Step 3.</t>
+          <t>CHALLENGE. Still no → Step 4.</t>
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr"/>
@@ -1373,20 +1395,38 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>free2 Step1 Reminder</t>
+          <t>price2 Step2 FOMO</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>you already got a free preview and this is ten times crazier, you know I don't do free twice</t>
+          <t>this mood won't last and I already picked YOU to share it with, don't make me regret that</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>REMINDER. Still → Step 2.</t>
+          <t>FOMO. Still no → Step 3.</t>
         </is>
       </c>
       <c r="D5" s="11" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="11" t="inlineStr">
+        <is>
+          <t>price2 Step1 Reframe</t>
+        </is>
+      </c>
+      <c r="B6" s="11" t="inlineStr">
+        <is>
+          <t>baby it's literally nothing for what you're about to see, trust me you'll be thanking me after</t>
+        </is>
+      </c>
+      <c r="C6" s="11" t="inlineStr">
+        <is>
+          <t>REFRAME. Still no → Step 2.</t>
+        </is>
+      </c>
+      <c r="D6" s="11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1438,17 +1478,17 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>nomoney1 Step4 Protect</t>
+          <t>discount1 Step4 Takeaway</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>it's fine, you're still here and that's what matters to me right now</t>
+          <t>okay I'll just save this for someone who actually wants it then, their loss isn't your gain though</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
         <is>
-          <t>PROTECT.</t>
+          <t>TAKEAWAY.</t>
         </is>
       </c>
       <c r="D2" s="11" t="inlineStr"/>
@@ -1456,17 +1496,17 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>nomoney1 Step3 PWYW</t>
+          <t>discount1 Step3 Concession</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>send whatever you can, even something small, I just need you to see what you made me do</t>
+          <t>ugh fine, [lower price] ONLY because I like you but don't ever ask me this again</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>PWYW. Still no → Step 4.</t>
+          <t>CONCESSION. ONE TIME. Still no → Step 4.</t>
         </is>
       </c>
       <c r="D3" s="11" t="inlineStr"/>
@@ -1474,17 +1514,17 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>nomoney1 Step2 Test</t>
+          <t>discount1 Step2 Challenge</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>not even [small amount]? I really want you to be the one who sees this</t>
+          <t>the guys who get my best stuff don't ask for discounts, they know what they're getting</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>TEST $3-5. Still no → Step 3.</t>
+          <t>CHALLENGE. Still → Step 3.</t>
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr"/>
@@ -1492,17 +1532,17 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>nomoney1 Step1 Empathy</t>
+          <t>discount1 Step1 Firmness</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>I hear you baby, that's okay</t>
+          <t>haha negotiate? baby this isn't a flea market... you already know this is worth every penny</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>EMPATHY. Still → Step 2.</t>
+          <t>FIRMNESS. Still → Step 2.</t>
         </is>
       </c>
       <c r="D5" s="11" t="inlineStr"/>
@@ -1557,17 +1597,17 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>nomoney2 Step4 Protect</t>
+          <t>discount2 Step4 Takeaway</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>you being here talking to me is enough for now</t>
+          <t>no worries, I'll keep it... someone else has been asking and they won't hesitate</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
         <is>
-          <t>PROTECT.</t>
+          <t>TAKEAWAY.</t>
         </is>
       </c>
       <c r="D2" s="11" t="inlineStr"/>
@@ -1575,17 +1615,17 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>nomoney2 Step3 PWYW</t>
+          <t>discount2 Step3 Concession</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>just send whatever feels right, I can't keep this from you</t>
+          <t>okay [lower price] and that's ONLY because this convo has been different, first and last time</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>PWYW. Still no → Step 4.</t>
+          <t>CONCESSION. ONE TIME. Still no → Step 4.</t>
         </is>
       </c>
       <c r="D3" s="11" t="inlineStr"/>
@@ -1593,17 +1633,17 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>nomoney2 Step2 Test</t>
+          <t>discount2 Step2 Challenge</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>what about just [small amount]? I'd hate for you to miss this one</t>
+          <t>I don't do this for just anyone, and the ones who get it never complain about the price after</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>TEST. Still no → Step 3.</t>
+          <t>CHALLENGE. Still → Step 3.</t>
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr"/>
@@ -1611,17 +1651,17 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>nomoney2 Step1 Empathy</t>
+          <t>discount2 Step1 Firmness</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>okay don't stress about it</t>
+          <t>a discount? babe do I look like I'm on sale? you know exactly what you're getting</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>EMPATHY. Still → Step 2.</t>
+          <t>FIRMNESS. Still → Step 2.</t>
         </is>
       </c>
       <c r="D5" s="11" t="inlineStr"/>
@@ -1632,6 +1672,482 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="80" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="C1" s="10" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="D1" s="10" t="inlineStr">
+        <is>
+          <t>*Guidelines</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="11" t="inlineStr">
+        <is>
+          <t>free1 Step4 Seed</t>
+        </is>
+      </c>
+      <c r="B2" s="11" t="inlineStr">
+        <is>
+          <t>I'll keep it then, but just know I made it thinking about you</t>
+        </is>
+      </c>
+      <c r="C2" s="11" t="inlineStr">
+        <is>
+          <t>SEED.</t>
+        </is>
+      </c>
+      <c r="D2" s="11" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="11" t="inlineStr">
+        <is>
+          <t>free1 Step3 Guilt</t>
+        </is>
+      </c>
+      <c r="B3" s="11" t="inlineStr">
+        <is>
+          <t>I literally spent time making this because of what YOU said to me, this wasn't random content, this was for you</t>
+        </is>
+      </c>
+      <c r="C3" s="11" t="inlineStr">
+        <is>
+          <t>GUILT. Still no → Step 4.</t>
+        </is>
+      </c>
+      <c r="D3" s="11" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="inlineStr">
+        <is>
+          <t>free1 Step2 Challenge</t>
+        </is>
+      </c>
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>free? I don't just hand this out, you have to earn the best stuff from me</t>
+        </is>
+      </c>
+      <c r="C4" s="11" t="inlineStr">
+        <is>
+          <t>CHALLENGE. Still → Step 3.</t>
+        </is>
+      </c>
+      <c r="D4" s="11" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="11" t="inlineStr">
+        <is>
+          <t>free1 Step1 Reminder</t>
+        </is>
+      </c>
+      <c r="B5" s="11" t="inlineStr">
+        <is>
+          <t>baby I already gave you one for free remember? this one is on another level and you know it</t>
+        </is>
+      </c>
+      <c r="C5" s="11" t="inlineStr">
+        <is>
+          <t>REMINDER. Still → Step 2.</t>
+        </is>
+      </c>
+      <c r="D5" s="11" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="80" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="C1" s="10" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="D1" s="10" t="inlineStr">
+        <is>
+          <t>*Guidelines</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="11" t="inlineStr">
+        <is>
+          <t>free2 Step4 Seed</t>
+        </is>
+      </c>
+      <c r="B2" s="11" t="inlineStr">
+        <is>
+          <t>okay I'll hold onto it, but it's got your name on it</t>
+        </is>
+      </c>
+      <c r="C2" s="11" t="inlineStr">
+        <is>
+          <t>SEED.</t>
+        </is>
+      </c>
+      <c r="D2" s="11" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="11" t="inlineStr">
+        <is>
+          <t>free2 Step3 Guilt</t>
+        </is>
+      </c>
+      <c r="B3" s="11" t="inlineStr">
+        <is>
+          <t>I recorded this because of our conversation, specifically because of YOU, it took effort and I did it for you</t>
+        </is>
+      </c>
+      <c r="C3" s="11" t="inlineStr">
+        <is>
+          <t>GUILT. Still no → Step 4.</t>
+        </is>
+      </c>
+      <c r="D3" s="11" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="inlineStr">
+        <is>
+          <t>free2 Step2 Challenge</t>
+        </is>
+      </c>
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>the best things aren't free baby, especially not what I just did</t>
+        </is>
+      </c>
+      <c r="C4" s="11" t="inlineStr">
+        <is>
+          <t>CHALLENGE. Still → Step 3.</t>
+        </is>
+      </c>
+      <c r="D4" s="11" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="11" t="inlineStr">
+        <is>
+          <t>free2 Step1 Reminder</t>
+        </is>
+      </c>
+      <c r="B5" s="11" t="inlineStr">
+        <is>
+          <t>you already got a free preview and this is ten times crazier, you know I don't do free twice</t>
+        </is>
+      </c>
+      <c r="C5" s="11" t="inlineStr">
+        <is>
+          <t>REMINDER. Still → Step 2.</t>
+        </is>
+      </c>
+      <c r="D5" s="11" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="80" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="C1" s="10" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="D1" s="10" t="inlineStr">
+        <is>
+          <t>*Guidelines</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="11" t="inlineStr">
+        <is>
+          <t>nomoney1 Step4 Protect</t>
+        </is>
+      </c>
+      <c r="B2" s="11" t="inlineStr">
+        <is>
+          <t>it's fine, you're still here and that's what matters to me right now</t>
+        </is>
+      </c>
+      <c r="C2" s="11" t="inlineStr">
+        <is>
+          <t>PROTECT.</t>
+        </is>
+      </c>
+      <c r="D2" s="11" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="11" t="inlineStr">
+        <is>
+          <t>nomoney1 Step3 PWYW</t>
+        </is>
+      </c>
+      <c r="B3" s="11" t="inlineStr">
+        <is>
+          <t>send whatever you can, even something small, I just need you to see what you made me do</t>
+        </is>
+      </c>
+      <c r="C3" s="11" t="inlineStr">
+        <is>
+          <t>PWYW. Still no → Step 4.</t>
+        </is>
+      </c>
+      <c r="D3" s="11" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="inlineStr">
+        <is>
+          <t>nomoney1 Step2 Test</t>
+        </is>
+      </c>
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>not even [small amount]? I really want you to be the one who sees this</t>
+        </is>
+      </c>
+      <c r="C4" s="11" t="inlineStr">
+        <is>
+          <t>TEST $3-5. Still no → Step 3.</t>
+        </is>
+      </c>
+      <c r="D4" s="11" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="11" t="inlineStr">
+        <is>
+          <t>nomoney1 Step1 Empathy</t>
+        </is>
+      </c>
+      <c r="B5" s="11" t="inlineStr">
+        <is>
+          <t>I hear you baby, that's okay</t>
+        </is>
+      </c>
+      <c r="C5" s="11" t="inlineStr">
+        <is>
+          <t>EMPATHY. Still → Step 2.</t>
+        </is>
+      </c>
+      <c r="D5" s="11" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="80" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="C1" s="10" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="D1" s="10" t="inlineStr">
+        <is>
+          <t>*Guidelines</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="11" t="inlineStr">
+        <is>
+          <t>nomoney2 Step4 Protect</t>
+        </is>
+      </c>
+      <c r="B2" s="11" t="inlineStr">
+        <is>
+          <t>you being here talking to me is enough for now</t>
+        </is>
+      </c>
+      <c r="C2" s="11" t="inlineStr">
+        <is>
+          <t>PROTECT.</t>
+        </is>
+      </c>
+      <c r="D2" s="11" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="11" t="inlineStr">
+        <is>
+          <t>nomoney2 Step3 PWYW</t>
+        </is>
+      </c>
+      <c r="B3" s="11" t="inlineStr">
+        <is>
+          <t>just send whatever feels right, I can't keep this from you</t>
+        </is>
+      </c>
+      <c r="C3" s="11" t="inlineStr">
+        <is>
+          <t>PWYW. Still no → Step 4.</t>
+        </is>
+      </c>
+      <c r="D3" s="11" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="inlineStr">
+        <is>
+          <t>nomoney2 Step2 Test</t>
+        </is>
+      </c>
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>what about just [small amount]? I'd hate for you to miss this one</t>
+        </is>
+      </c>
+      <c r="C4" s="11" t="inlineStr">
+        <is>
+          <t>TEST. Still no → Step 3.</t>
+        </is>
+      </c>
+      <c r="D4" s="11" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="11" t="inlineStr">
+        <is>
+          <t>nomoney2 Step1 Empathy</t>
+        </is>
+      </c>
+      <c r="B5" s="11" t="inlineStr">
+        <is>
+          <t>okay don't stress about it</t>
+        </is>
+      </c>
+      <c r="C5" s="11" t="inlineStr">
+        <is>
+          <t>EMPATHY. Still → Step 2.</t>
+        </is>
+      </c>
+      <c r="D5" s="11" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1732,7 +2248,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1827,446 +2343,6 @@
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="80" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="10" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" s="10" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="C1" s="10" t="inlineStr">
-        <is>
-          <t>Note</t>
-        </is>
-      </c>
-      <c r="D1" s="10" t="inlineStr">
-        <is>
-          <t>*Guidelines</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="11" t="inlineStr">
-        <is>
-          <t>card1 Step3 Urgency</t>
-        </is>
-      </c>
-      <c r="B2" s="11" t="inlineStr">
-        <is>
-          <t>figure it out soon because this mood I'm in right now isn't gonna last and I want you to have it</t>
-        </is>
-      </c>
-      <c r="C2" s="11" t="inlineStr">
-        <is>
-          <t>URGENCY.</t>
-        </is>
-      </c>
-      <c r="D2" s="11" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="11" t="inlineStr">
-        <is>
-          <t>card1 Step2 AltCard</t>
-        </is>
-      </c>
-      <c r="B3" s="11" t="inlineStr">
-        <is>
-          <t>maybe try a different card? I really don't want you to miss this</t>
-        </is>
-      </c>
-      <c r="C3" s="11" t="inlineStr">
-        <is>
-          <t>ALTERNATIVE. Still → Step 3.</t>
-        </is>
-      </c>
-      <c r="D3" s="11" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="11" t="inlineStr">
-        <is>
-          <t>card1 Step1 Retry</t>
-        </is>
-      </c>
-      <c r="B4" s="11" t="inlineStr">
-        <is>
-          <t>ugh that's annoying, try again baby it usually works the second time</t>
-        </is>
-      </c>
-      <c r="C4" s="11" t="inlineStr">
-        <is>
-          <t>RETRY. Still → Step 2.</t>
-        </is>
-      </c>
-      <c r="D4" s="11" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="80" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="10" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" s="10" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="C1" s="10" t="inlineStr">
-        <is>
-          <t>Note</t>
-        </is>
-      </c>
-      <c r="D1" s="10" t="inlineStr">
-        <is>
-          <t>*Guidelines</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="11" t="inlineStr">
-        <is>
-          <t>card2 Step3 Urgency</t>
-        </is>
-      </c>
-      <c r="B2" s="11" t="inlineStr">
-        <is>
-          <t>baby fix it quick, I don't keep stuff like this around forever</t>
-        </is>
-      </c>
-      <c r="C2" s="11" t="inlineStr">
-        <is>
-          <t>URGENCY.</t>
-        </is>
-      </c>
-      <c r="D2" s="11" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="11" t="inlineStr">
-        <is>
-          <t>card2 Step2 AltCard</t>
-        </is>
-      </c>
-      <c r="B3" s="11" t="inlineStr">
-        <is>
-          <t>do you have another card? because you really don't want to miss what I made for you</t>
-        </is>
-      </c>
-      <c r="C3" s="11" t="inlineStr">
-        <is>
-          <t>ALTERNATIVE. Still → Step 3.</t>
-        </is>
-      </c>
-      <c r="D3" s="11" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="11" t="inlineStr">
-        <is>
-          <t>card2 Step1 Retry</t>
-        </is>
-      </c>
-      <c r="B4" s="11" t="inlineStr">
-        <is>
-          <t>that happens sometimes, try one more time for me</t>
-        </is>
-      </c>
-      <c r="C4" s="11" t="inlineStr">
-        <is>
-          <t>RETRY. Still → Step 2.</t>
-        </is>
-      </c>
-      <c r="D4" s="11" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="80" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="10" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" s="10" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="C1" s="10" t="inlineStr">
-        <is>
-          <t>Note</t>
-        </is>
-      </c>
-      <c r="D1" s="10" t="inlineStr">
-        <is>
-          <t>*Guidelines</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="12" t="inlineStr">
-        <is>
-          <t>nosex1 Step4 Accept</t>
-        </is>
-      </c>
-      <c r="B2" s="12" t="inlineStr">
-        <is>
-          <t>alright I'll behave, for now... no promises though</t>
-        </is>
-      </c>
-      <c r="C2" s="12" t="inlineStr">
-        <is>
-          <t>ACCEPT. Door open.</t>
-        </is>
-      </c>
-      <c r="D2" s="12" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="12" t="inlineStr">
-        <is>
-          <t>nosex1 Step3 ReAttempt</t>
-        </is>
-      </c>
-      <c r="B3" s="12" t="inlineStr">
-        <is>
-          <t>okay but I can't help it, there's something about you that keeps messing with my head</t>
-        </is>
-      </c>
-      <c r="C3" s="12" t="inlineStr">
-        <is>
-          <t>RE-ATTEMPT. Still no → Step 4.</t>
-        </is>
-      </c>
-      <c r="D3" s="12" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="12" t="inlineStr">
-        <is>
-          <t>nosex1 Step2 Subtle</t>
-        </is>
-      </c>
-      <c r="B4" s="12" t="inlineStr">
-        <is>
-          <t>so tell me more about you... what do you do when you're not making girls on the internet lose focus?</t>
-        </is>
-      </c>
-      <c r="C4" s="12" t="inlineStr">
-        <is>
-          <t>SUBTLE. → Step 3 later.</t>
-        </is>
-      </c>
-      <c r="D4" s="12" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="12" t="inlineStr">
-        <is>
-          <t>nosex1 Step1 Respect</t>
-        </is>
-      </c>
-      <c r="B5" s="12" t="inlineStr">
-        <is>
-          <t>haha okay I got a little carried away, you're too easy to talk to</t>
-        </is>
-      </c>
-      <c r="C5" s="12" t="inlineStr">
-        <is>
-          <t>RESPECT. Still → Step 2.</t>
-        </is>
-      </c>
-      <c r="D5" s="12" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="80" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="10" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" s="10" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="C1" s="10" t="inlineStr">
-        <is>
-          <t>Note</t>
-        </is>
-      </c>
-      <c r="D1" s="10" t="inlineStr">
-        <is>
-          <t>*Guidelines</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="12" t="inlineStr">
-        <is>
-          <t>nosex2 Step4 Accept</t>
-        </is>
-      </c>
-      <c r="B2" s="12" t="inlineStr">
-        <is>
-          <t>fine I'll stop, but don't blame me when it happens again</t>
-        </is>
-      </c>
-      <c r="C2" s="12" t="inlineStr">
-        <is>
-          <t>ACCEPT.</t>
-        </is>
-      </c>
-      <c r="D2" s="12" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="12" t="inlineStr">
-        <is>
-          <t>nosex2 Step3 ReAttempt</t>
-        </is>
-      </c>
-      <c r="B3" s="12" t="inlineStr">
-        <is>
-          <t>I'm trying so hard to behave but you make it impossible</t>
-        </is>
-      </c>
-      <c r="C3" s="12" t="inlineStr">
-        <is>
-          <t>RE-ATTEMPT. Still no → Step 4.</t>
-        </is>
-      </c>
-      <c r="D3" s="12" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="12" t="inlineStr">
-        <is>
-          <t>nosex2 Step2 Subtle</t>
-        </is>
-      </c>
-      <c r="B4" s="12" t="inlineStr">
-        <is>
-          <t>okay new topic, what's the most adventurous thing you've ever done?</t>
-        </is>
-      </c>
-      <c r="C4" s="12" t="inlineStr">
-        <is>
-          <t>SUBTLE. → Step 3 later.</t>
-        </is>
-      </c>
-      <c r="D4" s="12" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="12" t="inlineStr">
-        <is>
-          <t>nosex2 Step1 Respect</t>
-        </is>
-      </c>
-      <c r="B5" s="12" t="inlineStr">
-        <is>
-          <t>my bad I got ahead of myself, it's your fault for being this fun to talk to</t>
-        </is>
-      </c>
-      <c r="C5" s="12" t="inlineStr">
-        <is>
-          <t>RESPECT. Still → Step 2.</t>
-        </is>
-      </c>
-      <c r="D5" s="12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2458,58 +2534,58 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="12" t="inlineStr">
-        <is>
-          <t>offtopic1 Step3 Retake</t>
-        </is>
-      </c>
-      <c r="B2" s="12" t="inlineStr">
-        <is>
-          <t>okay wait I remember now, so like I was saying...</t>
-        </is>
-      </c>
-      <c r="C2" s="12" t="inlineStr">
-        <is>
-          <t>RETAKE. Resume main script.</t>
-        </is>
-      </c>
-      <c r="D2" s="12" t="inlineStr"/>
+      <c r="A2" s="11" t="inlineStr">
+        <is>
+          <t>card1 Step3 Urgency</t>
+        </is>
+      </c>
+      <c r="B2" s="11" t="inlineStr">
+        <is>
+          <t>figure it out soon because this mood I'm in right now isn't gonna last and I want you to have it</t>
+        </is>
+      </c>
+      <c r="C2" s="11" t="inlineStr">
+        <is>
+          <t>URGENCY.</t>
+        </is>
+      </c>
+      <c r="D2" s="11" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="12" t="inlineStr">
-        <is>
-          <t>offtopic1 Step2 Redirect</t>
-        </is>
-      </c>
-      <c r="B3" s="12" t="inlineStr">
-        <is>
-          <t>but wait you totally distracted me, I was about to say something and now you made me lose my train of thought</t>
-        </is>
-      </c>
-      <c r="C3" s="12" t="inlineStr">
-        <is>
-          <t>REDIRECT. → Step 3.</t>
-        </is>
-      </c>
-      <c r="D3" s="12" t="inlineStr"/>
+      <c r="A3" s="11" t="inlineStr">
+        <is>
+          <t>card1 Step2 AltCard</t>
+        </is>
+      </c>
+      <c r="B3" s="11" t="inlineStr">
+        <is>
+          <t>maybe try a different card? I really don't want you to miss this</t>
+        </is>
+      </c>
+      <c r="C3" s="11" t="inlineStr">
+        <is>
+          <t>ALTERNATIVE. Still → Step 3.</t>
+        </is>
+      </c>
+      <c r="D3" s="11" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="12" t="inlineStr">
-        <is>
-          <t>offtopic1 Step1 Acknowledge</t>
-        </is>
-      </c>
-      <c r="B4" s="12" t="inlineStr">
-        <is>
-          <t>haha okay that's actually funny</t>
-        </is>
-      </c>
-      <c r="C4" s="12" t="inlineStr">
-        <is>
-          <t>ACKNOWLEDGE. Adapt to what he said. → Step 2.</t>
-        </is>
-      </c>
-      <c r="D4" s="12" t="inlineStr"/>
+      <c r="A4" s="11" t="inlineStr">
+        <is>
+          <t>card1 Step1 Retry</t>
+        </is>
+      </c>
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>ugh that's annoying, try again baby it usually works the second time</t>
+        </is>
+      </c>
+      <c r="C4" s="11" t="inlineStr">
+        <is>
+          <t>RETRY. Still → Step 2.</t>
+        </is>
+      </c>
+      <c r="D4" s="11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2559,58 +2635,58 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="12" t="inlineStr">
-        <is>
-          <t>offtopic2 Step3 Retake</t>
-        </is>
-      </c>
-      <c r="B2" s="12" t="inlineStr">
-        <is>
-          <t>OKAY focus, where was I... oh yeah</t>
-        </is>
-      </c>
-      <c r="C2" s="12" t="inlineStr">
-        <is>
-          <t>RETAKE.</t>
-        </is>
-      </c>
-      <c r="D2" s="12" t="inlineStr"/>
+      <c r="A2" s="11" t="inlineStr">
+        <is>
+          <t>card2 Step3 Urgency</t>
+        </is>
+      </c>
+      <c r="B2" s="11" t="inlineStr">
+        <is>
+          <t>baby fix it quick, I don't keep stuff like this around forever</t>
+        </is>
+      </c>
+      <c r="C2" s="11" t="inlineStr">
+        <is>
+          <t>URGENCY.</t>
+        </is>
+      </c>
+      <c r="D2" s="11" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="12" t="inlineStr">
-        <is>
-          <t>offtopic2 Step2 Redirect</t>
-        </is>
-      </c>
-      <c r="B3" s="12" t="inlineStr">
-        <is>
-          <t>wait no stop, you're distracting me from what I was going to tell you</t>
-        </is>
-      </c>
-      <c r="C3" s="12" t="inlineStr">
-        <is>
-          <t>REDIRECT. → Step 3.</t>
-        </is>
-      </c>
-      <c r="D3" s="12" t="inlineStr"/>
+      <c r="A3" s="11" t="inlineStr">
+        <is>
+          <t>card2 Step2 AltCard</t>
+        </is>
+      </c>
+      <c r="B3" s="11" t="inlineStr">
+        <is>
+          <t>do you have another card? because you really don't want to miss what I made for you</t>
+        </is>
+      </c>
+      <c r="C3" s="11" t="inlineStr">
+        <is>
+          <t>ALTERNATIVE. Still → Step 3.</t>
+        </is>
+      </c>
+      <c r="D3" s="11" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="12" t="inlineStr">
-        <is>
-          <t>offtopic2 Step1 Acknowledge</t>
-        </is>
-      </c>
-      <c r="B4" s="12" t="inlineStr">
-        <is>
-          <t>omg okay random but I love it</t>
-        </is>
-      </c>
-      <c r="C4" s="12" t="inlineStr">
-        <is>
-          <t>ACKNOWLEDGE. Adapt. → Step 2.</t>
-        </is>
-      </c>
-      <c r="D4" s="12" t="inlineStr"/>
+      <c r="A4" s="11" t="inlineStr">
+        <is>
+          <t>card2 Step1 Retry</t>
+        </is>
+      </c>
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>that happens sometimes, try one more time for me</t>
+        </is>
+      </c>
+      <c r="C4" s="11" t="inlineStr">
+        <is>
+          <t>RETRY. Still → Step 2.</t>
+        </is>
+      </c>
+      <c r="D4" s="11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2623,7 +2699,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2662,17 +2738,17 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>real1 Step3 Grounding</t>
+          <t>nosex1 Step4 Accept</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>I get why you'd think that, there's a lot of fake stuff on here, but what we've been talking about felt real to me... didn't it feel real to you?</t>
+          <t>alright I'll behave, for now... no promises though</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
         <is>
-          <t>GROUNDING.</t>
+          <t>ACCEPT. Door open.</t>
         </is>
       </c>
       <c r="D2" s="12" t="inlineStr"/>
@@ -2680,17 +2756,17 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>real1 Step2 Challenge</t>
+          <t>nosex1 Step3 ReAttempt</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>ask me anything, literally anything about my life, I'm an open book, go ahead</t>
+          <t>okay but I can't help it, there's something about you that keeps messing with my head</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>CHALLENGE. Still → Step 3.</t>
+          <t>RE-ATTEMPT. Still no → Step 4.</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr"/>
@@ -2698,20 +2774,38 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>real1 Step1 Humor</t>
+          <t>nosex1 Step2 Subtle</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>lol do I sound like a robot to you? beep boop... send $5 for human verification haha I'm kidding</t>
+          <t>so tell me more about you... what do you do when you're not making girls on the internet lose focus?</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>HUMOR. Still → Step 2.</t>
+          <t>SUBTLE. → Step 3 later.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="12" t="inlineStr">
+        <is>
+          <t>nosex1 Step1 Respect</t>
+        </is>
+      </c>
+      <c r="B5" s="12" t="inlineStr">
+        <is>
+          <t>haha okay I got a little carried away, you're too easy to talk to</t>
+        </is>
+      </c>
+      <c r="C5" s="12" t="inlineStr">
+        <is>
+          <t>RESPECT. Still → Step 2.</t>
+        </is>
+      </c>
+      <c r="D5" s="12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2724,7 +2818,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2763,17 +2857,17 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>real2 Step3 Grounding</t>
+          <t>nosex2 Step4 Accept</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>I know there's a lot of bots out here but what we've been talking about... that felt different, you felt it too right?</t>
+          <t>fine I'll stop, but don't blame me when it happens again</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
         <is>
-          <t>GROUNDING.</t>
+          <t>ACCEPT.</t>
         </is>
       </c>
       <c r="D2" s="12" t="inlineStr"/>
@@ -2781,17 +2875,17 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>real2 Step2 Challenge</t>
+          <t>nosex2 Step3 ReAttempt</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>test me then, ask me something only a real person would know, go ahead</t>
+          <t>I'm trying so hard to behave but you make it impossible</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>CHALLENGE. Still → Step 3.</t>
+          <t>RE-ATTEMPT. Still no → Step 4.</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr"/>
@@ -2799,20 +2893,38 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>real2 Step1 Humor</t>
+          <t>nosex2 Step2 Subtle</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>wait you think I'm fake?? that might be the funniest thing anyone's said to me today</t>
+          <t>okay new topic, what's the most adventurous thing you've ever done?</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>HUMOR. Still → Step 2.</t>
+          <t>SUBTLE. → Step 3 later.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="12" t="inlineStr">
+        <is>
+          <t>nosex2 Step1 Respect</t>
+        </is>
+      </c>
+      <c r="B5" s="12" t="inlineStr">
+        <is>
+          <t>my bad I got ahead of myself, it's your fault for being this fun to talk to</t>
+        </is>
+      </c>
+      <c r="C5" s="12" t="inlineStr">
+        <is>
+          <t>RESPECT. Still → Step 2.</t>
+        </is>
+      </c>
+      <c r="D5" s="12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2864,17 +2976,17 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>voice1 Step3 Firm</t>
+          <t>offtopic1 Step3 Retake</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>I don't do that on here but what I'm about to show you is better than any call, you'll see</t>
+          <t>okay wait I remember now, so like I was saying...</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
         <is>
-          <t>FIRM. No video calls.</t>
+          <t>RETAKE. Resume main script.</t>
         </is>
       </c>
       <c r="D2" s="12" t="inlineStr"/>
@@ -2882,17 +2994,17 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>voice1 Step2 Redirect</t>
+          <t>offtopic1 Step2 Redirect</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>I have something way better for you though, trust me you'll forget you even asked</t>
+          <t>but wait you totally distracted me, I was about to say something and now you made me lose my train of thought</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>REDIRECT. Still → Step 3.</t>
+          <t>REDIRECT. → Step 3.</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr"/>
@@ -2900,17 +3012,17 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>voice1 Step1 Dodge</t>
+          <t>offtopic1 Step1 Acknowledge</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>haha maybe one day if you earn it, but not yet</t>
+          <t>haha okay that's actually funny</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>DODGE. Model does NOT do video calls. Still → Step 2.</t>
+          <t>ACKNOWLEDGE. Adapt to what he said. → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -2965,17 +3077,17 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>voice2 Step3 Firm</t>
+          <t>offtopic2 Step3 Retake</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>I don't do that here but trust me what I have is way better than my voice</t>
+          <t>OKAY focus, where was I... oh yeah</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
         <is>
-          <t>FIRM.</t>
+          <t>RETAKE.</t>
         </is>
       </c>
       <c r="D2" s="12" t="inlineStr"/>
@@ -2983,17 +3095,17 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>voice2 Step2 Redirect</t>
+          <t>offtopic2 Step2 Redirect</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>how about instead of a call I show you something that'll actually blow your mind?</t>
+          <t>wait no stop, you're distracting me from what I was going to tell you</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>REDIRECT. Still → Step 3.</t>
+          <t>REDIRECT. → Step 3.</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr"/>
@@ -3001,17 +3113,17 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>voice2 Step1 Dodge</t>
+          <t>offtopic2 Step1 Acknowledge</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>hmmm you gotta earn that first</t>
+          <t>omg okay random but I love it</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>DODGE. Still → Step 2.</t>
+          <t>ACKNOWLEDGE. Adapt. → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -3066,17 +3178,17 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>customyes1 Step3 Close</t>
+          <t>real1 Step3 Grounding</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>trust me you won't regret it, I made this one special</t>
+          <t>I get why you'd think that, there's a lot of fake stuff on here, but what we've been talking about felt real to me... didn't it feel real to you?</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
         <is>
-          <t>CLOSE.</t>
+          <t>GROUNDING.</t>
         </is>
       </c>
       <c r="D2" s="12" t="inlineStr"/>
@@ -3084,17 +3196,17 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>customyes1 Step2 Price</t>
+          <t>real1 Step2 Challenge</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>I have it and you're gonna lose your mind... [price]</t>
+          <t>ask me anything, literally anything about my life, I'm an open book, go ahead</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>PRICE. Set based on content.</t>
+          <t>CHALLENGE. Still → Step 3.</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr"/>
@@ -3102,17 +3214,17 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>customyes1 Step1 Tease</t>
+          <t>real1 Step1 Humor</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>mmm you want that? I might have exactly what you're thinking of</t>
+          <t>lol do I sound like a robot to you? beep boop... send $5 for human verification haha I'm kidding</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>TEASE. → Step 2.</t>
+          <t>HUMOR. Still → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -3167,17 +3279,17 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>customyes2 Step3 Close</t>
+          <t>real2 Step3 Grounding</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>you're not gonna be able to stop watching this one</t>
+          <t>I know there's a lot of bots out here but what we've been talking about... that felt different, you felt it too right?</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
         <is>
-          <t>CLOSE.</t>
+          <t>GROUNDING.</t>
         </is>
       </c>
       <c r="D2" s="12" t="inlineStr"/>
@@ -3185,17 +3297,17 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>customyes2 Step2 Price</t>
+          <t>real2 Step2 Challenge</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>I made something just like that, [price] and it's worth every penny</t>
+          <t>test me then, ask me something only a real person would know, go ahead</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>PRICE.</t>
+          <t>CHALLENGE. Still → Step 3.</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr"/>
@@ -3203,17 +3315,17 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>customyes2 Step1 Tease</t>
+          <t>real2 Step1 Humor</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>ohhh you have good taste, I think I know exactly what you need</t>
+          <t>wait you think I'm fake?? that might be the funniest thing anyone's said to me today</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>TEASE. → Step 2.</t>
+          <t>HUMOR. Still → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -3268,17 +3380,17 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>customno1 Step3 Close</t>
+          <t>voice1 Step3 Firm</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>trust me, I know what you need better than you do</t>
+          <t>I don't do that on here but what I'm about to show you is better than any call, you'll see</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
         <is>
-          <t>CLOSE.</t>
+          <t>FIRM. No video calls.</t>
         </is>
       </c>
       <c r="D2" s="12" t="inlineStr"/>
@@ -3286,17 +3398,17 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>customno1 Step2 Alternative</t>
+          <t>voice1 Step2 Redirect</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>what I have might be even crazier and literally no one else has seen it</t>
+          <t>I have something way better for you though, trust me you'll forget you even asked</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>ALTERNATIVE + FOMO. → Step 3.</t>
+          <t>REDIRECT. Still → Step 3.</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr"/>
@@ -3304,17 +3416,17 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>customno1 Step1 Redirect</t>
+          <t>voice1 Step1 Dodge</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>I don't have exactly that but I have something that'll make you forget you even asked</t>
+          <t>haha maybe one day if you earn it, but not yet</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>REDIRECT. → Step 2.</t>
+          <t>DODGE. Model does NOT do video calls. Still → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -3369,17 +3481,17 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>customno2 Step3 Close</t>
+          <t>voice2 Step3 Firm</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>just trust me on this one, you'll thank me after</t>
+          <t>I don't do that here but trust me what I have is way better than my voice</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
         <is>
-          <t>CLOSE.</t>
+          <t>FIRM.</t>
         </is>
       </c>
       <c r="D2" s="12" t="inlineStr"/>
@@ -3387,17 +3499,17 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>customno2 Step2 Alternative</t>
+          <t>voice2 Step2 Redirect</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>nobody has seen what I'm about to show you and I think it's better than what you asked for</t>
+          <t>how about instead of a call I show you something that'll actually blow your mind?</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>ALTERNATIVE. → Step 3.</t>
+          <t>REDIRECT. Still → Step 3.</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr"/>
@@ -3405,17 +3517,17 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>customno2 Step1 Redirect</t>
+          <t>voice2 Step1 Dodge</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>hmm not exactly that but what I DO have is gonna hit even harder</t>
+          <t>hmmm you gotta earn that first</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>REDIRECT. → Step 2.</t>
+          <t>DODGE. Still → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -3661,17 +3773,17 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>done1 Step3 Seed</t>
+          <t>customyes1 Step3 Close</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>next time you HAVE to wait for me, I have something insane planned for round 2</t>
+          <t>trust me you won't regret it, I made this one special</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
         <is>
-          <t>SEED.</t>
+          <t>CLOSE.</t>
         </is>
       </c>
       <c r="D2" s="12" t="inlineStr"/>
@@ -3679,17 +3791,17 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>done1 Step2 Rescue</t>
+          <t>customyes1 Step2 Price</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>but I haven't finished yet... you're really gonna leave me like this?</t>
+          <t>I have it and you're gonna lose your mind... [price]</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>RESCUE. Still no → Step 3.</t>
+          <t>PRICE. Set based on content.</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr"/>
@@ -3697,17 +3809,17 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>done1 Step1 Validate</t>
+          <t>customyes1 Step1 Tease</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>fuck that's so hot, you came because of me??</t>
+          <t>mmm you want that? I might have exactly what you're thinking of</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>VALIDATE. → Step 2.</t>
+          <t>TEASE. → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -3762,17 +3874,17 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>done2 Step3 Seed</t>
+          <t>customyes2 Step3 Close</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>okay but next time you hold it, because what I have planned is way crazier</t>
+          <t>you're not gonna be able to stop watching this one</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
         <is>
-          <t>SEED.</t>
+          <t>CLOSE.</t>
         </is>
       </c>
       <c r="D2" s="12" t="inlineStr"/>
@@ -3780,17 +3892,17 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>done2 Step2 Rescue</t>
+          <t>customyes2 Step2 Price</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>wait but I'm not done yet, don't you wanna watch me finish too?</t>
+          <t>I made something just like that, [price] and it's worth every penny</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>RESCUE. Still no → Step 3.</t>
+          <t>PRICE.</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr"/>
@@ -3798,17 +3910,17 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>done2 Step1 Validate</t>
+          <t>customyes2 Step1 Tease</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>already?? damn that's hot</t>
+          <t>ohhh you have good taste, I think I know exactly what you need</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>VALIDATE. → Step 2.</t>
+          <t>TEASE. → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -3819,6 +3931,410 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="80" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="C1" s="10" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="D1" s="10" t="inlineStr">
+        <is>
+          <t>*Guidelines</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="12" t="inlineStr">
+        <is>
+          <t>customno1 Step3 Close</t>
+        </is>
+      </c>
+      <c r="B2" s="12" t="inlineStr">
+        <is>
+          <t>trust me, I know what you need better than you do</t>
+        </is>
+      </c>
+      <c r="C2" s="12" t="inlineStr">
+        <is>
+          <t>CLOSE.</t>
+        </is>
+      </c>
+      <c r="D2" s="12" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="12" t="inlineStr">
+        <is>
+          <t>customno1 Step2 Alternative</t>
+        </is>
+      </c>
+      <c r="B3" s="12" t="inlineStr">
+        <is>
+          <t>what I have might be even crazier and literally no one else has seen it</t>
+        </is>
+      </c>
+      <c r="C3" s="12" t="inlineStr">
+        <is>
+          <t>ALTERNATIVE + FOMO. → Step 3.</t>
+        </is>
+      </c>
+      <c r="D3" s="12" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="12" t="inlineStr">
+        <is>
+          <t>customno1 Step1 Redirect</t>
+        </is>
+      </c>
+      <c r="B4" s="12" t="inlineStr">
+        <is>
+          <t>I don't have exactly that but I have something that'll make you forget you even asked</t>
+        </is>
+      </c>
+      <c r="C4" s="12" t="inlineStr">
+        <is>
+          <t>REDIRECT. → Step 2.</t>
+        </is>
+      </c>
+      <c r="D4" s="12" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="80" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="C1" s="10" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="D1" s="10" t="inlineStr">
+        <is>
+          <t>*Guidelines</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="12" t="inlineStr">
+        <is>
+          <t>customno2 Step3 Close</t>
+        </is>
+      </c>
+      <c r="B2" s="12" t="inlineStr">
+        <is>
+          <t>just trust me on this one, you'll thank me after</t>
+        </is>
+      </c>
+      <c r="C2" s="12" t="inlineStr">
+        <is>
+          <t>CLOSE.</t>
+        </is>
+      </c>
+      <c r="D2" s="12" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="12" t="inlineStr">
+        <is>
+          <t>customno2 Step2 Alternative</t>
+        </is>
+      </c>
+      <c r="B3" s="12" t="inlineStr">
+        <is>
+          <t>nobody has seen what I'm about to show you and I think it's better than what you asked for</t>
+        </is>
+      </c>
+      <c r="C3" s="12" t="inlineStr">
+        <is>
+          <t>ALTERNATIVE. → Step 3.</t>
+        </is>
+      </c>
+      <c r="D3" s="12" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="12" t="inlineStr">
+        <is>
+          <t>customno2 Step1 Redirect</t>
+        </is>
+      </c>
+      <c r="B4" s="12" t="inlineStr">
+        <is>
+          <t>hmm not exactly that but what I DO have is gonna hit even harder</t>
+        </is>
+      </c>
+      <c r="C4" s="12" t="inlineStr">
+        <is>
+          <t>REDIRECT. → Step 2.</t>
+        </is>
+      </c>
+      <c r="D4" s="12" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="80" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="C1" s="10" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="D1" s="10" t="inlineStr">
+        <is>
+          <t>*Guidelines</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="12" t="inlineStr">
+        <is>
+          <t>done1 Step3 Seed</t>
+        </is>
+      </c>
+      <c r="B2" s="12" t="inlineStr">
+        <is>
+          <t>next time you HAVE to wait for me, I have something insane planned for round 2</t>
+        </is>
+      </c>
+      <c r="C2" s="12" t="inlineStr">
+        <is>
+          <t>SEED.</t>
+        </is>
+      </c>
+      <c r="D2" s="12" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="12" t="inlineStr">
+        <is>
+          <t>done1 Step2 Rescue</t>
+        </is>
+      </c>
+      <c r="B3" s="12" t="inlineStr">
+        <is>
+          <t>but I haven't finished yet... you're really gonna leave me like this?</t>
+        </is>
+      </c>
+      <c r="C3" s="12" t="inlineStr">
+        <is>
+          <t>RESCUE. Still no → Step 3.</t>
+        </is>
+      </c>
+      <c r="D3" s="12" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="12" t="inlineStr">
+        <is>
+          <t>done1 Step1 Validate</t>
+        </is>
+      </c>
+      <c r="B4" s="12" t="inlineStr">
+        <is>
+          <t>fuck that's so hot, you came because of me??</t>
+        </is>
+      </c>
+      <c r="C4" s="12" t="inlineStr">
+        <is>
+          <t>VALIDATE. → Step 2.</t>
+        </is>
+      </c>
+      <c r="D4" s="12" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="80" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="C1" s="10" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="D1" s="10" t="inlineStr">
+        <is>
+          <t>*Guidelines</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="12" t="inlineStr">
+        <is>
+          <t>done2 Step3 Seed</t>
+        </is>
+      </c>
+      <c r="B2" s="12" t="inlineStr">
+        <is>
+          <t>okay but next time you hold it, because what I have planned is way crazier</t>
+        </is>
+      </c>
+      <c r="C2" s="12" t="inlineStr">
+        <is>
+          <t>SEED.</t>
+        </is>
+      </c>
+      <c r="D2" s="12" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="12" t="inlineStr">
+        <is>
+          <t>done2 Step2 Rescue</t>
+        </is>
+      </c>
+      <c r="B3" s="12" t="inlineStr">
+        <is>
+          <t>wait but I'm not done yet, don't you wanna watch me finish too?</t>
+        </is>
+      </c>
+      <c r="C3" s="12" t="inlineStr">
+        <is>
+          <t>RESCUE. Still no → Step 3.</t>
+        </is>
+      </c>
+      <c r="D3" s="12" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="12" t="inlineStr">
+        <is>
+          <t>done2 Step1 Validate</t>
+        </is>
+      </c>
+      <c r="B4" s="12" t="inlineStr">
+        <is>
+          <t>already?? damn that's hot</t>
+        </is>
+      </c>
+      <c r="C4" s="12" t="inlineStr">
+        <is>
+          <t>VALIDATE. → Step 2.</t>
+        </is>
+      </c>
+      <c r="D4" s="12" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3973,7 +4489,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4128,7 +4644,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4577,7 +5093,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4585,123 +5101,500 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="16" customWidth="1" min="1" max="1"/>
     <col width="80" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="45" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="10" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Text</t>
         </is>
       </c>
-      <c r="C1" s="10" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Note</t>
         </is>
       </c>
-      <c r="D1" s="10" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>*Guidelines</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="11" t="inlineStr">
-        <is>
-          <t>price1 Step5 Seed</t>
-        </is>
-      </c>
-      <c r="B2" s="11" t="inlineStr">
-        <is>
-          <t>alright, I'll keep it then... but next time I'm in this mood you better be ready</t>
-        </is>
-      </c>
-      <c r="C2" s="11" t="inlineStr">
-        <is>
-          <t>SEED. Continue GFE.</t>
-        </is>
-      </c>
-      <c r="D2" s="11" t="inlineStr"/>
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>sex2 AC-2</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>you have no idea how hard that made me cum... I literally can't move right now</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Mention something specific he said/directed. KEEP TALKING — build bond. NEVER say goodbye.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Character limits
+Name: Up to 64 characters
+Tag: Up to 32 characters
+Text: Up to 1000 characters
+Note: Up to 246 characters
+Each sheet serves as a tag. Simply replace the sheet name with your desired tag name, and all scripts added to the sheet will be automatically assigned that tag once imported.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="inlineStr">
-        <is>
-          <t>price1 Step4 Downgrade</t>
-        </is>
-      </c>
-      <c r="B3" s="11" t="inlineStr">
-        <is>
-          <t>fine, [lower price] but only because you've been making me feel some type of way, don't tell anyone I did this</t>
-        </is>
-      </c>
-      <c r="C3" s="11" t="inlineStr">
-        <is>
-          <t>DOWNGRADE 20-30%. ONE TIME. Still no → Step 5.</t>
-        </is>
-      </c>
-      <c r="D3" s="11" t="inlineStr"/>
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>sex2 AC-1</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>holy shit babe... that was the most intense thing I've ever done with someone telling me what to do 🖤</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="inlineStr">
-        <is>
-          <t>price1 Step3 Challenge</t>
-        </is>
-      </c>
-      <c r="B4" s="11" t="inlineStr">
-        <is>
-          <t>honestly? most guys couldn't handle what I just recorded... I thought you were different</t>
-        </is>
-      </c>
-      <c r="C4" s="11" t="inlineStr">
-        <is>
-          <t>CHALLENGE. Still no → Step 4.</t>
-        </is>
-      </c>
-      <c r="D4" s="11" t="inlineStr"/>
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>sex2 S-22</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>this is what happens when you take control of me 🖤</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 4 — $55 (climax, full surrender to his commands). Bought → Aftercare. Silent → NR Waves.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="inlineStr">
-        <is>
-          <t>price1 Step2 FOMO</t>
-        </is>
-      </c>
-      <c r="B5" s="11" t="inlineStr">
-        <is>
-          <t>I'm literally dripping rn because of what you said and this mood isn't gonna last, don't miss it</t>
-        </is>
-      </c>
-      <c r="C5" s="11" t="inlineStr">
-        <is>
-          <t>FOMO. Still no → Step 3.</t>
-        </is>
-      </c>
-      <c r="D5" s="11" t="inlineStr"/>
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>sex2 S-21</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 1-2 MIN</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="11" t="inlineStr">
-        <is>
-          <t>price1 Step1 Reframe</t>
-        </is>
-      </c>
-      <c r="B6" s="11" t="inlineStr">
-        <is>
-          <t>babe that's less than your morning coffee and I promise this is gonna keep you up way longer</t>
-        </is>
-      </c>
-      <c r="C6" s="11" t="inlineStr">
-        <is>
-          <t>REFRAME. Still no → Step 2.</t>
-        </is>
-      </c>
-      <c r="D6" s="11" t="inlineStr"/>
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>sex2 S-20</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>fuck yes... I'm cumming so hard right now because you told me to</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>sex2 S-19</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="inlineStr">
+        <is>
+          <t>I'm right on the edge and I won't let go until you tell me to 🖤</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>sex2 S-18</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>oh my god I'm so close babe... tell me to cum, I need to hear you say it</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>Wait for reply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>sex2 S-17</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>you did this to me 🖤</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 3 — $40 (explicit solo, following his direction, more intense). Bought → continue. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>sex2 S-16</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 2-3 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>sex2 S-15</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="inlineStr">
+        <is>
+          <t>I need you to see what you're doing to me right now... please</t>
+        </is>
+      </c>
+      <c r="C11" s="6" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>sex2 S-14</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>I can feel myself getting close and it's all because of you telling me what to do</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>Solo framing — she's following HIS instructions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>sex2 S-13</t>
+        </is>
+      </c>
+      <c r="B13" s="6" t="inlineStr">
+        <is>
+          <t>nobody has ever controlled me like this... I'm literally your puppet right now and I can't stop</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>sex2 S-12</t>
+        </is>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>oh fuck babe I'm doing exactly what you said and I'm shaking</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>Wait for reply. NO cooldown.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>sex2 S-11</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>you asked for this... look 🖤</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 2 — $25 (doing what he requested — more explicit solo). Bought → continue. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="inlineStr">
+        <is>
+          <t>sex2 S-10</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>hold on let me get it</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 2-3 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>sex2 S-9</t>
+        </is>
+      </c>
+      <c r="B17" s="6" t="inlineStr">
+        <is>
+          <t>you want me to use my toy too? fuck you're going to destroy me 🖤</t>
+        </is>
+      </c>
+      <c r="C17" s="6" t="inlineStr">
+        <is>
+          <t>Wait for reply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>sex2 S-8</t>
+        </is>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>my hand is between my legs and I'm following every word you type... this is so hot</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>sex2 S-7</t>
+        </is>
+      </c>
+      <c r="B19" s="6" t="inlineStr">
+        <is>
+          <t>oh my god I can't believe I'm actually doing everything you say right now</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="inlineStr">
+        <is>
+          <t>React to his reply. Make it feel like HE is causing every action.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>sex2 S-6</t>
+        </is>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>okay I did that... now what? don't stop telling me babe</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>Wait for reply. He's in control of the pace.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>sex2 S-5</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>look what you made me do 🖤</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 1 — $12 (following his 'instructions' — solo tease, touching). Bought → continue. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>sex2 S-4</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>one sec 🖤</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 2-3 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>sex2 S-3</t>
+        </is>
+      </c>
+      <c r="B23" s="6" t="inlineStr">
+        <is>
+          <t>wait you want me to go lower? god you're bold and I love it</t>
+        </is>
+      </c>
+      <c r="C23" s="6" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>sex2 S-2</t>
+        </is>
+      </c>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>fuck that's hot... okay I'm doing it, I'm touching myself the way you described</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>React specifically to what he said. Make him feel in control.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="inlineStr">
+        <is>
+          <t>sex2 S-1</t>
+        </is>
+      </c>
+      <c r="B25" s="6" t="inlineStr">
+        <is>
+          <t>mmm okay so what would you do to me right now? I wanna hear it 🖤</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="inlineStr">
+        <is>
+          <t>Wait for reply. Let HIM lead. React to whatever he says.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>sex2 TB-5</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>tell me what you think 🖤</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 0 — FREE teaser (lounging in bed, suggestive pose). Wait for reply. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="inlineStr">
+        <is>
+          <t>sex2 TB-4</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>hold on let me show you what I mean</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 1-2 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="inlineStr">
+        <is>
+          <t>sex2 TB-3</t>
+        </is>
+      </c>
+      <c r="B28" s="7" t="inlineStr">
+        <is>
+          <t>you wanna know something? I keep wondering what you'd make me do if you were here</t>
+        </is>
+      </c>
+      <c r="C28" s="7" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="inlineStr">
+        <is>
+          <t>sex2 TB-2</t>
+        </is>
+      </c>
+      <c r="B29" s="7" t="inlineStr">
+        <is>
+          <t>I've been lying in bed all day and my mind keeps going back to you</t>
+        </is>
+      </c>
+      <c r="C29" s="7" t="inlineStr">
+        <is>
+          <t>React to his reply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="inlineStr">
+        <is>
+          <t>sex2 TB-1</t>
+        </is>
+      </c>
+      <c r="B30" s="7" t="inlineStr">
+        <is>
+          <t>hey you 🖤 I can't stop thinking about last time</t>
+        </is>
+      </c>
+      <c r="C30" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4714,7 +5607,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4722,123 +5615,496 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="16" customWidth="1" min="1" max="1"/>
     <col width="80" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="45" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="10" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Text</t>
         </is>
       </c>
-      <c r="C1" s="10" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Note</t>
         </is>
       </c>
-      <c r="D1" s="10" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>*Guidelines</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="11" t="inlineStr">
-        <is>
-          <t>price2 Step5 Seed</t>
-        </is>
-      </c>
-      <c r="B2" s="11" t="inlineStr">
-        <is>
-          <t>I'll hold onto it for now, but I know you're gonna come back for it</t>
-        </is>
-      </c>
-      <c r="C2" s="11" t="inlineStr">
-        <is>
-          <t>SEED.</t>
-        </is>
-      </c>
-      <c r="D2" s="11" t="inlineStr"/>
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>sex3 AC-2</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>I don't usually feel THIS connected to someone after... you know. but with you it's different</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Mention something specific. Emotional bonding. KEEP TALKING. NEVER say goodbye.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Character limits
+Name: Up to 64 characters
+Tag: Up to 32 characters
+Text: Up to 1000 characters
+Note: Up to 246 characters
+Each sheet serves as a tag. Simply replace the sheet name with your desired tag name, and all scripts added to the sheet will be automatically assigned that tag once imported.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="inlineStr">
-        <is>
-          <t>price2 Step4 Downgrade</t>
-        </is>
-      </c>
-      <c r="B3" s="11" t="inlineStr">
-        <is>
-          <t>look, [lower price] because I actually want YOU to have this one, I'm not doing this for anyone else</t>
-        </is>
-      </c>
-      <c r="C3" s="11" t="inlineStr">
-        <is>
-          <t>DOWNGRADE. ONE TIME. Still no → Step 5.</t>
-        </is>
-      </c>
-      <c r="D3" s="11" t="inlineStr"/>
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>sex3 AC-1</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>that was... so different from anything else 🖤 I feel so close to you right now</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="inlineStr">
-        <is>
-          <t>price2 Step3 Challenge</t>
-        </is>
-      </c>
-      <c r="B4" s="11" t="inlineStr">
-        <is>
-          <t>maybe you're just not ready for what I did... it's a lot</t>
-        </is>
-      </c>
-      <c r="C4" s="11" t="inlineStr">
-        <is>
-          <t>CHALLENGE. Still no → Step 4.</t>
-        </is>
-      </c>
-      <c r="D4" s="11" t="inlineStr"/>
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>sex3 S-22</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>I want you to have this 🖤</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 4 — $55 (climax, intimate angle — for him specifically). Bought → Aftercare. Silent → NR Waves.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="inlineStr">
-        <is>
-          <t>price2 Step2 FOMO</t>
-        </is>
-      </c>
-      <c r="B5" s="11" t="inlineStr">
-        <is>
-          <t>this mood won't last and I already picked YOU to share it with, don't make me regret that</t>
-        </is>
-      </c>
-      <c r="C5" s="11" t="inlineStr">
-        <is>
-          <t>FOMO. Still no → Step 3.</t>
-        </is>
-      </c>
-      <c r="D5" s="11" t="inlineStr"/>
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>sex3 S-21</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 1-2 MIN</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="11" t="inlineStr">
-        <is>
-          <t>price2 Step1 Reframe</t>
-        </is>
-      </c>
-      <c r="B6" s="11" t="inlineStr">
-        <is>
-          <t>baby it's literally nothing for what you're about to see, trust me you'll be thanking me after</t>
-        </is>
-      </c>
-      <c r="C6" s="11" t="inlineStr">
-        <is>
-          <t>REFRAME. Still no → Step 2.</t>
-        </is>
-      </c>
-      <c r="D6" s="11" t="inlineStr"/>
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>sex3 S-20</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>I'm cumming... oh my god babe I'm cumming thinking about you and I can barely type</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>sex3 S-19</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="inlineStr">
+        <is>
+          <t>I wish you were here to hold me right now because my whole body is shaking</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>sex3 S-18</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>oh god babe I'm so close and all I can think about is you</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>Wait for reply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>sex3 S-17</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>I've never shared something this personal before 🖤</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 3 — $40 (very intimate, explicit, personal angle). Bought → continue. Silent 3 min → NR Waves. 'I never do this' — ONE TIME.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>sex3 S-16</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>one sec</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 2-3 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>sex3 S-15</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="inlineStr">
+        <is>
+          <t>I can feel myself getting close and I want you to be part of this moment with me</t>
+        </is>
+      </c>
+      <c r="C11" s="6" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>sex3 S-14</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>you're the only person who gets to see me like this... completely open and completely honest</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>Emotional framing throughout. She CHOSE him.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>sex3 S-13</t>
+        </is>
+      </c>
+      <c r="B13" s="6" t="inlineStr">
+        <is>
+          <t>my fingers are inside me and I'm thinking about you and honestly I could cry because it feels so good</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>sex3 S-12</t>
+        </is>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>I've never felt this comfortable being this vulnerable with someone 🖤</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>Wait for reply. NO cooldown.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>sex3 S-11</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>this is what you do to me when I think about us 🖤</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 2 — $25 (more explicit but still intimate — emotional framing). Bought → continue. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="inlineStr">
+        <is>
+          <t>sex3 S-10</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>hold on</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 2-3 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>sex3 S-9</t>
+        </is>
+      </c>
+      <c r="B17" s="6" t="inlineStr">
+        <is>
+          <t>I want you to know what you do to me babe... like really see it</t>
+        </is>
+      </c>
+      <c r="C17" s="6" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>sex3 S-8</t>
+        </is>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>I'm tracing my fingers down my stomach and imagining it's you</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>sex3 S-7</t>
+        </is>
+      </c>
+      <c r="B19" s="6" t="inlineStr">
+        <is>
+          <t>it's like every message from you goes straight through my body and I can feel it between my legs</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="inlineStr">
+        <is>
+          <t>React to what he said. HE caused this feeling.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>sex3 S-6</t>
+        </is>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>god... feeling this connected to someone while touching myself is something else babe</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>Wait for reply. Brief cooldown.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>sex3 S-5</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>I wanted you to see me like this... the real me 🖤</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 1 — $12 (intimate, personal — soft lighting, vulnerable pose). Bought → continue. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>sex3 S-4</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>one second 🖤</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 2-3 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>sex3 S-3</t>
+        </is>
+      </c>
+      <c r="B23" s="6" t="inlineStr">
+        <is>
+          <t>I'm lying here and my body is reacting to you in ways I wasn't expecting right now</t>
+        </is>
+      </c>
+      <c r="C23" s="6" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>sex3 S-2</t>
+        </is>
+      </c>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>I don't know what it is about you but when we talk I feel it everywhere... not just mentally</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>React to what he says. Emotional first, sexual follows.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="inlineStr">
+        <is>
+          <t>sex3 S-1</t>
+        </is>
+      </c>
+      <c r="B25" s="6" t="inlineStr">
+        <is>
+          <t>the way you reacted to that just made my heart race 🖤</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="inlineStr">
+        <is>
+          <t>Wait for reply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>sex3 TB-5</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>this is just for you 🖤</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 0 — FREE teaser (soft, personal — in natural light, intimate angle). Wait for reply. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="inlineStr">
+        <is>
+          <t>sex3 TB-4</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>I want to share something with you</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 1-2 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="inlineStr">
+        <is>
+          <t>sex3 TB-3</t>
+        </is>
+      </c>
+      <c r="B28" s="7" t="inlineStr">
+        <is>
+          <t>you make me feel safe enough to show you parts of me I don't show anyone and that scares me a little</t>
+        </is>
+      </c>
+      <c r="C28" s="7" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="inlineStr">
+        <is>
+          <t>sex3 TB-2</t>
+        </is>
+      </c>
+      <c r="B29" s="7" t="inlineStr">
+        <is>
+          <t>I've been thinking about you today and not just in a sexual way... like actually thinking about you</t>
+        </is>
+      </c>
+      <c r="C29" s="7" t="inlineStr">
+        <is>
+          <t>Wait for reply. React warmly.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="inlineStr">
+        <is>
+          <t>sex3 TB-1</t>
+        </is>
+      </c>
+      <c r="B30" s="7" t="inlineStr">
+        <is>
+          <t>can I be honest with you about something? 🖤</t>
+        </is>
+      </c>
+      <c r="C30" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4851,7 +6117,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4859,105 +6125,496 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="16" customWidth="1" min="1" max="1"/>
     <col width="80" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="45" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="10" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Text</t>
         </is>
       </c>
-      <c r="C1" s="10" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Note</t>
         </is>
       </c>
-      <c r="D1" s="10" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>*Guidelines</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="11" t="inlineStr">
-        <is>
-          <t>discount1 Step4 Takeaway</t>
-        </is>
-      </c>
-      <c r="B2" s="11" t="inlineStr">
-        <is>
-          <t>okay I'll just save this for someone who actually wants it then, their loss isn't your gain though</t>
-        </is>
-      </c>
-      <c r="C2" s="11" t="inlineStr">
-        <is>
-          <t>TAKEAWAY.</t>
-        </is>
-      </c>
-      <c r="D2" s="11" t="inlineStr"/>
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>sex4 AC-2</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>nobody has ever won that game before and honestly? I'm kind of obsessed with you for it</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Mention his best message from the game. KEEP TALKING. NEVER say goodbye.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Character limits
+Name: Up to 64 characters
+Tag: Up to 32 characters
+Text: Up to 1000 characters
+Note: Up to 246 characters
+Each sheet serves as a tag. Simply replace the sheet name with your desired tag name, and all scripts added to the sheet will be automatically assigned that tag once imported.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="inlineStr">
-        <is>
-          <t>discount1 Step3 Concession</t>
-        </is>
-      </c>
-      <c r="B3" s="11" t="inlineStr">
-        <is>
-          <t>ugh fine, [lower price] ONLY because I like you but don't ever ask me this again</t>
-        </is>
-      </c>
-      <c r="C3" s="11" t="inlineStr">
-        <is>
-          <t>CONCESSION. ONE TIME. Still no → Step 4.</t>
-        </is>
-      </c>
-      <c r="D3" s="11" t="inlineStr"/>
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>sex4 AC-1</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>okay I'll admit it... you absolutely destroyed me 🖤</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="inlineStr">
-        <is>
-          <t>discount1 Step2 Challenge</t>
-        </is>
-      </c>
-      <c r="B4" s="11" t="inlineStr">
-        <is>
-          <t>the guys who get my best stuff don't ask for discounts, they know what they're getting</t>
-        </is>
-      </c>
-      <c r="C4" s="11" t="inlineStr">
-        <is>
-          <t>CHALLENGE. Still → Step 3.</t>
-        </is>
-      </c>
-      <c r="D4" s="11" t="inlineStr"/>
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>sex4 S-22</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>game over... you won everything 🖤</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 4 — $55 (full climax — she surrendered completely). Bought → Aftercare. Silent → NR Waves.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="inlineStr">
-        <is>
-          <t>discount1 Step1 Firmness</t>
-        </is>
-      </c>
-      <c r="B5" s="11" t="inlineStr">
-        <is>
-          <t>haha negotiate? baby this isn't a flea market... you already know this is worth every penny</t>
-        </is>
-      </c>
-      <c r="C5" s="11" t="inlineStr">
-        <is>
-          <t>FIRMNESS. Still → Step 2.</t>
-        </is>
-      </c>
-      <c r="D5" s="11" t="inlineStr"/>
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>sex4 S-21</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>hold on</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 1-2 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>sex4 S-20</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>oh fuck I'm cumming... you completely destroyed me with that game and I loved every second</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>sex4 S-19</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="inlineStr">
+        <is>
+          <t>don't stop typing to me babe... I need your words right now I'm right there</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>sex4 S-18</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>I can't even pretend to play anymore... I'm about to cum so hard because of you</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>Wait for reply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>sex4 S-17</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>you win 🖤</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 3 — $40 (she admits defeat — very explicit, she lost control). Bought → continue. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>sex4 S-16</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 2-3 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>sex4 S-15</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="inlineStr">
+        <is>
+          <t>I give up babe... you broke me and now I need you to see what you've done</t>
+        </is>
+      </c>
+      <c r="C11" s="6" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>sex4 S-14</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>my fingers are soaked and my legs are shaking and this is all because of what you said</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>She lost the game — he won. She can't hold back.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>sex4 S-13</t>
+        </is>
+      </c>
+      <c r="B13" s="6" t="inlineStr">
+        <is>
+          <t>fuck this game I can't think straight anymore... your words are making me do things to myself I can't stop</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>sex4 S-12</t>
+        </is>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>okay new rule: keep talking to me like that while I touch myself and don't stop 🖤</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>Wait for reply. She's losing the game now — he's in control.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>sex4 S-11</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>level 2... you definitely earned this one 🖤</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 2 — $25 (more explicit reward — touching, responding to his fantasy). Bought → continue. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="inlineStr">
+        <is>
+          <t>sex4 S-10</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>fine</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 2-3 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>sex4 S-9</t>
+        </is>
+      </c>
+      <c r="B17" s="6" t="inlineStr">
+        <is>
+          <t>I can't believe I'm touching myself because of what you just wrote babe</t>
+        </is>
+      </c>
+      <c r="C17" s="6" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>sex4 S-8</t>
+        </is>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>you're actually good at this and now I'm wet and it's annoying because you're winning</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>sex4 S-7</t>
+        </is>
+      </c>
+      <c r="B19" s="6" t="inlineStr">
+        <is>
+          <t>oh fuck... that one hit different. I'm literally squeezing my thighs together right now</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="inlineStr">
+        <is>
+          <t>React to what he says. Genuinely turned on.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>sex4 S-6</t>
+        </is>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>okay now it's getting harder... tell me your dirtiest fantasy about me, don't hold back</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>Wait for reply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>sex4 S-5</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>level 1 unlocked 🖤</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 1 — $12 (teasing reward — lingerie, playful). Bought → continue. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>sex4 S-4</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>you earned this</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 2-3 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>sex4 S-3</t>
+        </is>
+      </c>
+      <c r="B23" s="6" t="inlineStr">
+        <is>
+          <t>fine you win this round... I'm starting to feel something and it's your fault</t>
+        </is>
+      </c>
+      <c r="C23" s="6" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>sex4 S-2</t>
+        </is>
+      </c>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>mmm okay that actually got to me a little... my skin is tingling</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>React to what he says. Make him work for it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="inlineStr">
+        <is>
+          <t>sex4 S-1</t>
+        </is>
+      </c>
+      <c r="B25" s="6" t="inlineStr">
+        <is>
+          <t>okay that was... not bad. but I know you can do better 🖤</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="inlineStr">
+        <is>
+          <t>Wait for reply. React to his attempt. Rate it playfully.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>sex4 TB-5</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>this is your starting point 🖤 now impress me</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 0 — FREE teaser (confident, playful pose — challenging look). Wait for reply. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="inlineStr">
+        <is>
+          <t>sex4 TB-4</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>let me give you a little preview first</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 1-2 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="inlineStr">
+        <is>
+          <t>sex4 TB-3</t>
+        </is>
+      </c>
+      <c r="B28" s="7" t="inlineStr">
+        <is>
+          <t>here's the deal: you describe what you'd do to me, and if you turn me on enough... I'll show you what happens</t>
+        </is>
+      </c>
+      <c r="C28" s="7" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="inlineStr">
+        <is>
+          <t>sex4 TB-2</t>
+        </is>
+      </c>
+      <c r="B29" s="7" t="inlineStr">
+        <is>
+          <t>I wanna play a game with you... but only if you think you can keep up</t>
+        </is>
+      </c>
+      <c r="C29" s="7" t="inlineStr">
+        <is>
+          <t>Wait for reply. Build anticipation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="inlineStr">
+        <is>
+          <t>sex4 TB-1</t>
+        </is>
+      </c>
+      <c r="B30" s="7" t="inlineStr">
+        <is>
+          <t>okay I have an idea and you might not be able to handle it 🖤</t>
+        </is>
+      </c>
+      <c r="C30" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4970,7 +6627,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4978,105 +6635,496 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="16" customWidth="1" min="1" max="1"/>
     <col width="80" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="45" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="10" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Text</t>
         </is>
       </c>
-      <c r="C1" s="10" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Note</t>
         </is>
       </c>
-      <c r="D1" s="10" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>*Guidelines</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="11" t="inlineStr">
-        <is>
-          <t>discount2 Step4 Takeaway</t>
-        </is>
-      </c>
-      <c r="B2" s="11" t="inlineStr">
-        <is>
-          <t>no worries, I'll keep it... someone else has been asking and they won't hesitate</t>
-        </is>
-      </c>
-      <c r="C2" s="11" t="inlineStr">
-        <is>
-          <t>TAKEAWAY.</t>
-        </is>
-      </c>
-      <c r="D2" s="11" t="inlineStr"/>
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>sex5 AC-2</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>you brought my fantasy to life and now I don't know how I'm supposed to sleep tonight without dreaming about you again</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Reference the scenario. KEEP TALKING. NEVER say goodbye.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Character limits
+Name: Up to 64 characters
+Tag: Up to 32 characters
+Text: Up to 1000 characters
+Note: Up to 246 characters
+Each sheet serves as a tag. Simply replace the sheet name with your desired tag name, and all scripts added to the sheet will be automatically assigned that tag once imported.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="inlineStr">
-        <is>
-          <t>discount2 Step3 Concession</t>
-        </is>
-      </c>
-      <c r="B3" s="11" t="inlineStr">
-        <is>
-          <t>okay [lower price] and that's ONLY because this convo has been different, first and last time</t>
-        </is>
-      </c>
-      <c r="C3" s="11" t="inlineStr">
-        <is>
-          <t>CONCESSION. ONE TIME. Still no → Step 4.</t>
-        </is>
-      </c>
-      <c r="D3" s="11" t="inlineStr"/>
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>sex5 AC-1</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>okay that was so much better than the dream 🖤 I'm literally still shaking</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="inlineStr">
-        <is>
-          <t>discount2 Step2 Challenge</t>
-        </is>
-      </c>
-      <c r="B4" s="11" t="inlineStr">
-        <is>
-          <t>I don't do this for just anyone, and the ones who get it never complain about the price after</t>
-        </is>
-      </c>
-      <c r="C4" s="11" t="inlineStr">
-        <is>
-          <t>CHALLENGE. Still → Step 3.</t>
-        </is>
-      </c>
-      <c r="D4" s="11" t="inlineStr"/>
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>sex5 S-22</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>the dream ended here... but this is better 🖤</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 4 — $55 (full climax — living the fantasy). Bought → Aftercare. Silent → NR Waves.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="inlineStr">
-        <is>
-          <t>discount2 Step1 Firmness</t>
-        </is>
-      </c>
-      <c r="B5" s="11" t="inlineStr">
-        <is>
-          <t>a discount? babe do I look like I'm on sale? you know exactly what you're getting</t>
-        </is>
-      </c>
-      <c r="C5" s="11" t="inlineStr">
-        <is>
-          <t>FIRMNESS. Still → Step 2.</t>
-        </is>
-      </c>
-      <c r="D5" s="11" t="inlineStr"/>
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>sex5 S-21</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 1-2 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>sex5 S-20</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>oh fuck I'm cumming babe... the dream didn't even come close to how this feels right now</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>sex5 S-19</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="inlineStr">
+        <is>
+          <t>I'm right there babe... imagining you inside me and I can feel every inch</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>sex5 S-18</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>in the dream this is where I came so hard I woke up... and right now I'm about to do it again for real</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>Wait for reply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>sex5 S-17</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>this is what happens to my body when I dream about you 🖤</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 3 — $40 (very explicit — her body responding to the fantasy). Bought → continue. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>sex5 S-16</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>one sec</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 2-3 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>sex5 S-15</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="inlineStr">
+        <is>
+          <t>I need you to see what this fantasy does to me in real life</t>
+        </is>
+      </c>
+      <c r="C11" s="6" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>sex5 S-14</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>right now my fingers are inside me pretending it's you and I can barely breathe babe</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>Fantasy meets reality — she's touching herself living the dream.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>sex5 S-13</t>
+        </is>
+      </c>
+      <c r="B13" s="6" t="inlineStr">
+        <is>
+          <t>I was riding you and looking into your eyes and it was the most intense thing I've ever felt</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>sex5 S-12</t>
+        </is>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>in the dream I flipped you over and climbed on top because I needed to feel you 🖤</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>Wait for reply. NO cooldown.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>sex5 S-11</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>this is what was happening to my body at that point 🖤</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 2 — $25 (more explicit — matching the fantasy progression). Bought → continue. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="inlineStr">
+        <is>
+          <t>sex5 S-10</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>fuck hold on</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 2-3 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>sex5 S-9</t>
+        </is>
+      </c>
+      <c r="B17" s="6" t="inlineStr">
+        <is>
+          <t>you went lower... and lower... and I was moaning so loud the whole hotel could probably hear</t>
+        </is>
+      </c>
+      <c r="C17" s="6" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>sex5 S-8</t>
+        </is>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>I can feel myself getting wet right now just describing this to you babe</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>sex5 S-7</t>
+        </is>
+      </c>
+      <c r="B19" s="6" t="inlineStr">
+        <is>
+          <t>you started kissing down my neck and I was grabbing the sheets because I knew what was coming</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="inlineStr">
+        <is>
+          <t>Stay in the scenario. He's living the fantasy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>sex5 S-6</t>
+        </is>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>mmm you liked that? in the dream you couldn't keep your hands off me after seeing this</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>Wait for reply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>sex5 S-5</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>this is what you saw next in my dream 🖤</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 1 — $12 (lingerie reveal, as if for him in the hotel room scenario). Bought → continue. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>sex5 S-4</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>one sec 🖤</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 2-3 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>sex5 S-3</t>
+        </is>
+      </c>
+      <c r="B23" s="6" t="inlineStr">
+        <is>
+          <t>you pushed me onto the bed and I let you because honestly I've been wanting this since the first time we talked</t>
+        </is>
+      </c>
+      <c r="C23" s="6" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>sex5 S-2</t>
+        </is>
+      </c>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>god just thinking about it is making my body react right now... like I can physically feel it</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>React to his reply. Pull him into the scenario.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="inlineStr">
+        <is>
+          <t>sex5 S-1</t>
+        </is>
+      </c>
+      <c r="B25" s="6" t="inlineStr">
+        <is>
+          <t>okay so in my dream you grabbed my waist and pulled me close... and I could feel you against me 🖤</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="inlineStr">
+        <is>
+          <t>Wait for reply. Set the scene — he's a character in HER fantasy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>sex5 TB-5</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>me walking out of the bathroom in this 🖤</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 0 — FREE teaser (posed like coming out of bathroom, suggestive). Wait for reply. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="inlineStr">
+        <is>
+          <t>sex5 TB-4</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>picture this</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 1-2 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="inlineStr">
+        <is>
+          <t>sex5 TB-3</t>
+        </is>
+      </c>
+      <c r="B28" s="7" t="inlineStr">
+        <is>
+          <t>I wanna recreate it with you right now... just go with it babe</t>
+        </is>
+      </c>
+      <c r="C28" s="7" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="inlineStr">
+        <is>
+          <t>sex5 TB-2</t>
+        </is>
+      </c>
+      <c r="B29" s="7" t="inlineStr">
+        <is>
+          <t>it was so vivid... we were alone in a hotel room and you were looking at me like you couldn't wait another second</t>
+        </is>
+      </c>
+      <c r="C29" s="7" t="inlineStr">
+        <is>
+          <t>Wait for reply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="inlineStr">
+        <is>
+          <t>sex5 TB-1</t>
+        </is>
+      </c>
+      <c r="B30" s="7" t="inlineStr">
+        <is>
+          <t>okay so I had this dream about you last night and I can't get it out of my head 🖤</t>
+        </is>
+      </c>
+      <c r="C30" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
